--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_CO.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_CO.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_CO</t>
+  </si>
+  <si>
+    <t>02_taxi_CO</t>
+  </si>
+  <si>
+    <t>03_van_CO</t>
+  </si>
+  <si>
+    <t>04_bus_CO</t>
+  </si>
+  <si>
+    <t>05_LightTruck_CO</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_CO</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_CO</t>
+  </si>
+  <si>
+    <t>Total_CO (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1290 +397,1393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_CO</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_CO</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_CO</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_CO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_CO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_CO</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_CO (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>257.2001241255466</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.6754201499767919</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>3.055246662759681</v>
+      </c>
+      <c r="D2">
         <v>37.2058850309641</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>11.16038048220286</v>
+      </c>
+      <c r="F2">
         <v>11.21261194236481</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>150.5550546997028</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>4.10917104617947</v>
       </c>
-      <c r="H2" t="n">
-        <v>460.9582669947345</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>474.4984739897203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>267.9303442218081</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.8289247295169722</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>3.749620904295973</v>
+      </c>
+      <c r="D3">
         <v>35.73723167447864</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>12.51315387398503</v>
+      </c>
+      <c r="F3">
         <v>10.44709225152062</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>133.5110862431326</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>3.160900804753438</v>
       </c>
-      <c r="H3" t="n">
-        <v>451.6155799252105</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>467.0494299739745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>283.7005161814657</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.7982238136089357</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>3.610746055988714</v>
+      </c>
+      <c r="D4">
         <v>36.22678279330712</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>11.4985738301484</v>
+      </c>
+      <c r="F4">
         <v>10.26696997132199</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>126.8828762877998</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>5.373531368080844</v>
       </c>
-      <c r="H4" t="n">
-        <v>463.2489004155844</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>477.5599964881125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>280.9366716112163</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.7214715238388457</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>3.263558935220569</v>
+      </c>
+      <c r="D5">
         <v>30.35216936736543</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>12.51315387398503</v>
+      </c>
+      <c r="F5">
         <v>11.70794821291104</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>87.11361655580284</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>4.10917104617947</v>
       </c>
-      <c r="H5" t="n">
-        <v>414.9410483173139</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>429.9962896026806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>300.9338999724314</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.7061210658848278</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>3.194121511066941</v>
+      </c>
+      <c r="D6">
         <v>42.10139621924885</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>12.85134722193057</v>
+      </c>
+      <c r="F6">
         <v>10.80733681191788</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>105.1044721488491</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>4.10917104617947</v>
       </c>
-      <c r="H6" t="n">
-        <v>463.7623972645115</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>479.1017449316242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>315.2408601007801</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.7368219817928638</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>3.332996359374198</v>
+      </c>
+      <c r="D7">
         <v>40.14319174393494</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>12.17496052603948</v>
+      </c>
+      <c r="F7">
         <v>10.49212282157028</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>89.95427796523119</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>4.741351207130157</v>
       </c>
-      <c r="H7" t="n">
-        <v>461.3086258204395</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>476.0797607240603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>358.3243195781949</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.5526164863446478</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>2.49974726953065</v>
+      </c>
+      <c r="D8">
         <v>43.08049845690578</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>17.92424744111368</v>
+      </c>
+      <c r="F8">
         <v>10.0418171210737</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>53.0256796426626</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>6.005711529031533</v>
       </c>
-      <c r="H8" t="n">
-        <v>471.0306428142132</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>490.9020210385128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>391.6530335135535</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.4451632806665219</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>2.013685300455245</v>
+      </c>
+      <c r="D9">
         <v>37.2058850309641</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>25.36450109591559</v>
+      </c>
+      <c r="F9">
         <v>7.294952348044572</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>40.71614686847306</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>1.896540482852063</v>
       </c>
-      <c r="H9" t="n">
-        <v>479.2117215245538</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>506.144744640258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>397.8310390235224</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.5219155704366117</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>2.360872421223391</v>
+      </c>
+      <c r="D10">
         <v>29.37306712970849</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>27.0554678356433</v>
+      </c>
+      <c r="F10">
         <v>3.917659594320232</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>21.77840413895071</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.9482702414260313</v>
       </c>
-      <c r="H10" t="n">
-        <v>454.3703556983644</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>483.2647803847945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>256.8749659408114</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.8135742715629538</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>3.680183480142345</v>
+      </c>
+      <c r="D11">
         <v>17.62384027782509</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>22.32076096440572</v>
+      </c>
+      <c r="F11">
         <v>1.801222801986314</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>16.097081320094</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>1.264360321901375</v>
       </c>
-      <c r="H11" t="n">
-        <v>294.4750449341811</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>319.6624151071662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>221.2701447123064</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.9056770192870617</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>4.096808025064119</v>
+      </c>
+      <c r="D12">
         <v>14.68653356485425</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>19.27702083289585</v>
+      </c>
+      <c r="F12">
         <v>2.161467362383577</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>14.20330704714177</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.9482702414260313</v>
       </c>
-      <c r="H12" t="n">
-        <v>254.1753999473991</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>276.643551786072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>168.4319396928358</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.5065651124825938</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>2.291434997069762</v>
+      </c>
+      <c r="D13">
         <v>12.72832908954035</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>15.55689400549489</v>
+      </c>
+      <c r="F13">
         <v>1.486008811638709</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>10.4157585012373</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>193.5686012077347</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>210.9103650978167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>123.0723729222748</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.53726602839063</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>2.43030984537702</v>
+      </c>
+      <c r="D14">
         <v>10.28057349539798</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>7.778447002747447</v>
+      </c>
+      <c r="F14">
         <v>1.486008811638709</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>11.36264563771341</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.3160900804753438</v>
       </c>
-      <c r="H14" t="n">
-        <v>147.0549569758908</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>156.7264477956246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>77.06248978224338</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.1381541215861619</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0.6249368173826624</v>
+      </c>
+      <c r="D15">
         <v>4.405960069456273</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>7.102060306856368</v>
+      </c>
+      <c r="F15">
         <v>0.8105502608938413</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>16.097081320094</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.3160900804753438</v>
       </c>
-      <c r="H15" t="n">
-        <v>98.83032563474902</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>106.4191686374019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>54.13883775841151</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.3223596170343779</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>1.458185907226212</v>
+      </c>
+      <c r="D16">
         <v>2.937306712970849</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>3.381933479455412</v>
+      </c>
+      <c r="F16">
         <v>1.666131091837342</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>10.4157585012373</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.6321801609506876</v>
       </c>
-      <c r="H16" t="n">
-        <v>70.11257384244206</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>74.6303336120893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>34.95450485903444</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.4758641965745579</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>2.152560148762503</v>
+      </c>
+      <c r="D17">
         <v>0.9791022376569498</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17">
         <v>1.215825391340762</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>17.04396845657012</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>54.66926514117684</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>56.34596109336478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>22.5984938390967</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.3223596170343779</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>1.458185907226212</v>
+      </c>
+      <c r="D18">
         <v>3.426857831799324</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>0.8105502608938413</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>21.77840413895071</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>48.93666568777495</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>50.07249197796678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>25.36233840934592</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.2763082431723239</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>1.249873634765325</v>
+      </c>
+      <c r="D19">
         <v>2.937306712970849</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>2.70554678356433</v>
+      </c>
+      <c r="F19">
         <v>1.035703111142131</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>20.83151700247459</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>50.44317347910581</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>54.12228565426315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>45.35956677056097</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.184205495448216</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0.8332490898435495</v>
+      </c>
+      <c r="D20">
         <v>6.853715663598648</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>1.352773391782165</v>
+      </c>
+      <c r="F20">
         <v>2.071406222284262</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>26.5128398213313</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>80.9817339732234</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>82.9835509594009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>109.090570978661</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.1381541215861619</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0.6249368173826624</v>
+      </c>
+      <c r="D21">
         <v>14.68653356485425</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>12.51315387398503</v>
+      </c>
+      <c r="F21">
         <v>3.692506744071944</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>38.82237259552084</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.9482702414260313</v>
       </c>
-      <c r="H21" t="n">
-        <v>167.3784082461202</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>180.3783448159017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>207.2883427686925</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.1995559534022339</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>0.9026865139971785</v>
+      </c>
+      <c r="D22">
         <v>31.33127160502239</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>33.48114144660858</v>
+      </c>
+      <c r="F22">
         <v>6.349310377001755</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>68.17587382628049</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>3.160900804753438</v>
       </c>
-      <c r="H22" t="n">
-        <v>316.5052553351529</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>350.6895273423564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>333.6122975383195</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.2149064113562519</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>0.972123938150808</v>
+      </c>
+      <c r="D23">
         <v>24.47755594142375</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>33.14294809866305</v>
+      </c>
+      <c r="F23">
         <v>7.385013488143889</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>86.16672941932674</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>2.844810724278094</v>
       </c>
-      <c r="H23" t="n">
-        <v>454.7013135228482</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>488.6014791483058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>409.5367336739895</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.4451632806665219</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>2.013685300455245</v>
+      </c>
+      <c r="D24">
         <v>35.73723167447864</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>20.29160087673247</v>
+      </c>
+      <c r="F24">
         <v>9.051144579981228</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>105.1044721488491</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>6.321801609506876</v>
       </c>
-      <c r="H24" t="n">
-        <v>566.1965469674719</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>588.0566698639931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>297.844897217447</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.7828733556549179</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>3.541308631835086</v>
+      </c>
+      <c r="D25">
         <v>49.93421412050444</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>20.29160087673247</v>
+      </c>
+      <c r="F25">
         <v>10.17690883122267</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>140.1392961984654</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>8.850522253309629</v>
       </c>
-      <c r="H25" t="n">
-        <v>507.7287119766041</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>530.7787481295167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>251.9975931697833</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.5219155704366117</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>2.360872421223391</v>
+      </c>
+      <c r="D26">
         <v>53.36107195230376</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>10.82218713425732</v>
+      </c>
+      <c r="F26">
         <v>10.94242852206686</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>163.8114746103684</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>4.425261126654815</v>
       </c>
-      <c r="H26" t="n">
-        <v>485.0597449516137</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>497.7208889366578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>262.5652341736774</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.6447192340687558</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>2.916371814452424</v>
+      </c>
+      <c r="D27">
         <v>51.40286747698985</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>12.17496052603948</v>
+      </c>
+      <c r="F27">
         <v>10.17690883122267</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>145.8206190173222</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>3.476990885228782</v>
       </c>
-      <c r="H27" t="n">
-        <v>474.0873396185096</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>488.5339527249327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>278.0102479485993</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.6140183181607201</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>2.777496966145165</v>
+      </c>
+      <c r="D28">
         <v>52.38196971464682</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>11.16038048220286</v>
+      </c>
+      <c r="F28">
         <v>9.996786551024039</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>138.2455219255132</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>6.005711529031533</v>
       </c>
-      <c r="H28" t="n">
-        <v>485.2542559869756</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>498.578115117163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>275.2464033783504</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.5526164863446478</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>2.49974726953065</v>
+      </c>
+      <c r="D29">
         <v>43.57004957573427</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>12.17496052603948</v>
+      </c>
+      <c r="F29">
         <v>11.39273422256343</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>94.68871364761178</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>4.425261126654815</v>
       </c>
-      <c r="H29" t="n">
-        <v>429.8757784372594</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>443.9978697464848</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>294.9184735548302</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.53726602839063</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>2.43030984537702</v>
+      </c>
+      <c r="D30">
         <v>60.70433873473087</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>12.51315387398503</v>
+      </c>
+      <c r="F30">
         <v>10.53715339161993</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>114.5733435136103</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>4.425261126654815</v>
       </c>
-      <c r="H30" t="n">
-        <v>485.6958363498367</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>500.1020340408081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>308.9002754984439</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.5679669442986659</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>2.569184693684278</v>
+      </c>
+      <c r="D31">
         <v>57.76703202176002</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>11.83676717809394</v>
+      </c>
+      <c r="F31">
         <v>10.22193940127233</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>98.47626219351625</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>5.057441287605501</v>
       </c>
-      <c r="H31" t="n">
-        <v>480.9909173468968</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>494.8289022743763</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>351.1708395140203</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.4298128227125039</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>1.944247876301616</v>
+      </c>
+      <c r="D32">
         <v>62.17299209121633</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>17.2478607452226</v>
+      </c>
+      <c r="F32">
         <v>9.771633700775757</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>57.76011532504319</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>6.637891689982219</v>
       </c>
-      <c r="H32" t="n">
-        <v>487.9432851437503</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>506.7055809425621</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>383.8492370799085</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.3377100749883959</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>1.527623331379841</v>
+      </c>
+      <c r="D33">
         <v>53.36107195230376</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>24.68811440002451</v>
+      </c>
+      <c r="F33">
         <v>7.114830067845936</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>44.50369541437753</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>2.212630563327407</v>
       </c>
-      <c r="H33" t="n">
-        <v>491.3791751527516</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>517.2572028091674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>389.8646634975097</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.3991119068044678</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>1.805373027994357</v>
+      </c>
+      <c r="D34">
         <v>42.10139621924885</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>26.37908113975221</v>
+      </c>
+      <c r="F34">
         <v>3.827598454220916</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>23.67217841190294</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.9482702414260313</v>
       </c>
-      <c r="H34" t="n">
-        <v>460.8132187311129</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>488.598560992055</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>251.672434985048</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.6293687761147378</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>2.846934390298794</v>
+      </c>
+      <c r="D35">
         <v>25.4566581790807</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>21.64437426851464</v>
+      </c>
+      <c r="F35">
         <v>1.756192231936656</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>17.99085559304623</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>1.264360321901375</v>
       </c>
-      <c r="H35" t="n">
-        <v>298.7698700871277</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>322.6318099698264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>216.8805092183811</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.6907706079308099</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>3.124684086913311</v>
+      </c>
+      <c r="D36">
         <v>21.05069810962443</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>18.60063413700476</v>
+      </c>
+      <c r="F36">
         <v>2.116436792333918</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>15.15019418361789</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.9482702414260313</v>
       </c>
-      <c r="H36" t="n">
-        <v>256.8368791533142</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>277.8714267693014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>165.0177787531161</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.3837614488504499</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>1.735935603840728</v>
+      </c>
+      <c r="D37">
         <v>18.11339139665356</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>15.21870065754935</v>
+      </c>
+      <c r="F37">
         <v>1.440978241589051</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>11.36264563771341</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>196.3185554779225</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>212.8894302904621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>120.6336865367607</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.4144623647584861</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>1.874810452147987</v>
+      </c>
+      <c r="D38">
         <v>14.68653356485425</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>7.440253654801904</v>
+      </c>
+      <c r="F38">
         <v>1.440978241589051</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>12.30953277418953</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.3160900804753438</v>
       </c>
-      <c r="H38" t="n">
-        <v>149.8012835626274</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>158.7018853048187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>75.43669885856741</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.107453205678126</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>0.486061969075404</v>
+      </c>
+      <c r="D39">
         <v>6.364164544770176</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>6.763866958910824</v>
+      </c>
+      <c r="F39">
         <v>0.8105502608938413</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>17.99085559304623</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.3160900804753438</v>
       </c>
-      <c r="H39" t="n">
-        <v>101.0258125434311</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>108.1682882657392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>53.00078411183827</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.2456073272642879</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>1.110998786458066</v>
+      </c>
+      <c r="D40">
         <v>4.405960069456273</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>3.381933479455412</v>
+      </c>
+      <c r="F40">
         <v>1.621100521787683</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>11.36264563771341</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.6321801609506876</v>
       </c>
-      <c r="H40" t="n">
-        <v>71.2682778290106</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>75.5156027676598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>34.30418848956405</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.3684109908964319</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>1.666498179687099</v>
+      </c>
+      <c r="D41">
         <v>1.468653356485425</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>1.170794821291104</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>18.93774272952236</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>56.24979038775938</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>57.54787757655004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>22.11075656199388</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.2456073272642879</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>1.110998786458066</v>
+      </c>
+      <c r="D42">
         <v>4.895511188284749</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42">
         <v>0.8105502608938413</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>23.67217841190294</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>51.7346037503397</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>52.59999520953349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>24.87460113224311</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.2149064113562519</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>0.972123938150808</v>
+      </c>
+      <c r="D43">
         <v>4.405960069456273</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>2.70554678356433</v>
+      </c>
+      <c r="F43">
         <v>0.9906725410924726</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>22.72529127542682</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>53.21143142957494</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>56.67419573993382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>44.38409221635537</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.1381541215861619</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>0.6249368173826624</v>
+      </c>
+      <c r="D44">
         <v>9.791022376569497</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>1.352773391782165</v>
+      </c>
+      <c r="F44">
         <v>2.026375652234603</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>29.35350123075966</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>85.69314559750529</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>87.53270168508396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>106.8144636855146</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.107453205678126</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0.486061969075404</v>
+      </c>
+      <c r="D45">
         <v>21.05069810962443</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>12.17496052603948</v>
+      </c>
+      <c r="F45">
         <v>3.602445603972628</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>42.60992114142533</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.9482702414260313</v>
       </c>
-      <c r="H45" t="n">
-        <v>175.1332519876411</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>187.6868212770779</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>203.061286367135</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.15350457954018</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>0.6943742415362913</v>
+      </c>
+      <c r="D46">
         <v>45.03870293221967</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>32.46656140277196</v>
+      </c>
+      <c r="F46">
         <v>6.169188096803124</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>73.85719664513717</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>3.476990885228782</v>
       </c>
-      <c r="H46" t="n">
-        <v>331.7568695060639</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>364.7643005708319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>326.9465547512477</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.168855037494198</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>0.7638116656899203</v>
+      </c>
+      <c r="D47">
         <v>35.24768055565018</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>32.12836805482642</v>
+      </c>
+      <c r="F47">
         <v>7.204891207945257</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>93.74182651113567</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>3.160900804753438</v>
       </c>
-      <c r="H47" t="n">
-        <v>466.4707088682265</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>499.1940335512486</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>401.2451999632418</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.3377100749883959</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>1.527623331379841</v>
+      </c>
+      <c r="D48">
         <v>51.40286747698985</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>19.61521418084139</v>
+      </c>
+      <c r="F48">
         <v>8.825991729732941</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>114.5733435136103</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>6.953981770457564</v>
       </c>
-      <c r="H48" t="n">
-        <v>583.3390945290208</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>604.1442219662537</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>291.8294707998457</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.5986678602067019</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>2.708059541991537</v>
+      </c>
+      <c r="D49">
         <v>71.96401446778582</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>19.61521418084139</v>
+      </c>
+      <c r="F49">
         <v>9.906725410924729</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>152.448828972655</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>9.798792494735656</v>
       </c>
-      <c r="H49" t="n">
-        <v>536.5465000061536</v>
+      <c r="I49">
+        <v>558.2711058687797</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_CO.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>257.2001241255466</v>
+        <v>791.1593171770613</v>
       </c>
       <c r="C2">
-        <v>3.055246662759681</v>
+        <v>9.398078137538336</v>
       </c>
       <c r="D2">
-        <v>37.2058850309641</v>
+        <v>114.4469999621671</v>
       </c>
       <c r="E2">
-        <v>11.16038048220286</v>
+        <v>34.32983958213731</v>
       </c>
       <c r="F2">
-        <v>11.21261194236481</v>
+        <v>34.49050593677995</v>
       </c>
       <c r="G2">
-        <v>150.5550546997028</v>
+        <v>463.1142176884393</v>
       </c>
       <c r="H2">
-        <v>4.10917104617947</v>
+        <v>12.63999762874217</v>
       </c>
       <c r="I2">
-        <v>474.4984739897203</v>
+        <v>1459.578956112866</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>267.9303442218081</v>
+        <v>824.165963784954</v>
       </c>
       <c r="C3">
-        <v>3.749620904295973</v>
+        <v>11.53400498697887</v>
       </c>
       <c r="D3">
-        <v>35.73723167447864</v>
+        <v>109.9293552268184</v>
       </c>
       <c r="E3">
-        <v>12.51315387398503</v>
+        <v>38.49103225876003</v>
       </c>
       <c r="F3">
-        <v>10.44709225152062</v>
+        <v>32.13573243908814</v>
       </c>
       <c r="G3">
-        <v>133.5110862431326</v>
+        <v>410.6861930444652</v>
       </c>
       <c r="H3">
-        <v>3.160900804753438</v>
+        <v>9.723075099032439</v>
       </c>
       <c r="I3">
-        <v>467.0494299739745</v>
+        <v>1436.665356840097</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>283.7005161814657</v>
+        <v>872.6757322844322</v>
       </c>
       <c r="C4">
-        <v>3.610746055988714</v>
+        <v>11.10681961709077</v>
       </c>
       <c r="D4">
-        <v>36.22678279330712</v>
+        <v>111.4352368052679</v>
       </c>
       <c r="E4">
-        <v>11.4985738301484</v>
+        <v>35.37013775129299</v>
       </c>
       <c r="F4">
-        <v>10.26696997132199</v>
+        <v>31.58166808669006</v>
       </c>
       <c r="G4">
-        <v>126.8828762877998</v>
+        <v>390.2975167940307</v>
       </c>
       <c r="H4">
-        <v>5.373531368080844</v>
+        <v>16.52922766835515</v>
       </c>
       <c r="I4">
-        <v>477.5599964881125</v>
+        <v>1468.99633900716</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>280.9366716112163</v>
+        <v>864.1740202793686</v>
       </c>
       <c r="C5">
-        <v>3.263558935220569</v>
+        <v>10.0388561923705</v>
       </c>
       <c r="D5">
-        <v>30.35216936736543</v>
+        <v>93.36465786387312</v>
       </c>
       <c r="E5">
-        <v>12.51315387398503</v>
+        <v>38.49103225876003</v>
       </c>
       <c r="F5">
-        <v>11.70794821291104</v>
+        <v>36.01418290587464</v>
       </c>
       <c r="G5">
-        <v>87.11361655580284</v>
+        <v>267.965459291424</v>
       </c>
       <c r="H5">
-        <v>4.10917104617947</v>
+        <v>12.63999762874217</v>
       </c>
       <c r="I5">
-        <v>429.9962896026806</v>
+        <v>1322.688206420413</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>300.9338999724314</v>
+        <v>925.6864071395323</v>
       </c>
       <c r="C6">
-        <v>3.194121511066941</v>
+        <v>9.825263507426445</v>
       </c>
       <c r="D6">
-        <v>42.10139621924885</v>
+        <v>129.5058157466628</v>
       </c>
       <c r="E6">
-        <v>12.85134722193057</v>
+        <v>39.5313304279157</v>
       </c>
       <c r="F6">
-        <v>10.80733681191788</v>
+        <v>33.24386114388427</v>
       </c>
       <c r="G6">
-        <v>105.1044721488491</v>
+        <v>323.3061519711745</v>
       </c>
       <c r="H6">
-        <v>4.10917104617947</v>
+        <v>12.63999762874217</v>
       </c>
       <c r="I6">
-        <v>479.1017449316242</v>
+        <v>1473.738827565338</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>315.2408601007801</v>
+        <v>969.6952692833896</v>
       </c>
       <c r="C7">
-        <v>3.332996359374198</v>
+        <v>10.25244887731455</v>
       </c>
       <c r="D7">
-        <v>40.14319174393494</v>
+        <v>123.4822894328645</v>
       </c>
       <c r="E7">
-        <v>12.17496052603948</v>
+        <v>37.45073408960434</v>
       </c>
       <c r="F7">
-        <v>10.49212282157028</v>
+        <v>32.27424852718767</v>
       </c>
       <c r="G7">
-        <v>89.95427796523119</v>
+        <v>276.703463398753</v>
       </c>
       <c r="H7">
-        <v>4.741351207130157</v>
+        <v>14.58461264854866</v>
       </c>
       <c r="I7">
-        <v>476.0797607240603</v>
+        <v>1464.443066257662</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>358.3243195781949</v>
+        <v>1102.22195642114</v>
       </c>
       <c r="C8">
-        <v>2.49974726953065</v>
+        <v>7.689336657985911</v>
       </c>
       <c r="D8">
-        <v>43.08049845690578</v>
+        <v>132.517578903562</v>
       </c>
       <c r="E8">
-        <v>17.92424744111368</v>
+        <v>55.13580296525083</v>
       </c>
       <c r="F8">
-        <v>10.0418171210737</v>
+        <v>30.88908764619248</v>
       </c>
       <c r="G8">
-        <v>53.0256796426626</v>
+        <v>163.1094100034755</v>
       </c>
       <c r="H8">
-        <v>6.005711529031533</v>
+        <v>18.47384268816164</v>
       </c>
       <c r="I8">
-        <v>490.9020210385128</v>
+        <v>1510.037015285768</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>391.6530335135535</v>
+        <v>1204.742601188078</v>
       </c>
       <c r="C9">
-        <v>2.013685300455245</v>
+        <v>6.19418786337754</v>
       </c>
       <c r="D9">
-        <v>37.2058850309641</v>
+        <v>114.4469999621671</v>
       </c>
       <c r="E9">
-        <v>25.36450109591559</v>
+        <v>78.02236268667571</v>
       </c>
       <c r="F9">
-        <v>7.294952348044572</v>
+        <v>22.43960627212189</v>
       </c>
       <c r="G9">
-        <v>40.71614686847306</v>
+        <v>125.244725538383</v>
       </c>
       <c r="H9">
-        <v>1.896540482852063</v>
+        <v>5.833845059419463</v>
       </c>
       <c r="I9">
-        <v>506.144744640258</v>
+        <v>1556.924328570223</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>397.8310390235224</v>
+        <v>1223.746428022926</v>
       </c>
       <c r="C10">
-        <v>2.360872421223391</v>
+        <v>7.262151288097806</v>
       </c>
       <c r="D10">
-        <v>29.37306712970849</v>
+        <v>90.35289470697404</v>
       </c>
       <c r="E10">
-        <v>27.0554678356433</v>
+        <v>83.22385353245407</v>
       </c>
       <c r="F10">
-        <v>3.917659594320232</v>
+        <v>12.05089966465806</v>
       </c>
       <c r="G10">
-        <v>21.77840413895071</v>
+        <v>66.991364822856</v>
       </c>
       <c r="H10">
-        <v>0.9482702414260313</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I10">
-        <v>483.2647803847945</v>
+        <v>1486.544514567676</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>256.8749659408114</v>
+        <v>790.159115764701</v>
       </c>
       <c r="C11">
-        <v>3.680183480142345</v>
+        <v>11.32041230203481</v>
       </c>
       <c r="D11">
-        <v>17.62384027782509</v>
+        <v>54.21173682418443</v>
       </c>
       <c r="E11">
-        <v>22.32076096440572</v>
+        <v>68.65967916427462</v>
       </c>
       <c r="F11">
-        <v>1.801222801986314</v>
+        <v>5.540643523980714</v>
       </c>
       <c r="G11">
-        <v>16.097081320094</v>
+        <v>49.51535660819791</v>
       </c>
       <c r="H11">
-        <v>1.264360321901375</v>
+        <v>3.889230039612976</v>
       </c>
       <c r="I11">
-        <v>319.6624151071662</v>
+        <v>983.2961742269864</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>221.2701447123064</v>
+        <v>680.6370611112392</v>
       </c>
       <c r="C12">
-        <v>4.096808025064119</v>
+        <v>12.60196841169913</v>
       </c>
       <c r="D12">
-        <v>14.68653356485425</v>
+        <v>45.17644735348702</v>
       </c>
       <c r="E12">
-        <v>19.27702083289585</v>
+        <v>59.29699564187352</v>
       </c>
       <c r="F12">
-        <v>2.161467362383577</v>
+        <v>6.648772228776858</v>
       </c>
       <c r="G12">
-        <v>14.20330704714177</v>
+        <v>43.69002053664521</v>
       </c>
       <c r="H12">
-        <v>0.9482702414260313</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I12">
-        <v>276.643551786072</v>
+        <v>850.9681878134305</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>168.4319396928358</v>
+        <v>518.1043316026775</v>
       </c>
       <c r="C13">
-        <v>2.291434997069762</v>
+        <v>7.048558603153753</v>
       </c>
       <c r="D13">
-        <v>12.72832908954035</v>
+        <v>39.15292103968877</v>
       </c>
       <c r="E13">
-        <v>15.55689400549489</v>
+        <v>47.85371578116111</v>
       </c>
       <c r="F13">
-        <v>1.486008811638709</v>
+        <v>4.571030907284087</v>
       </c>
       <c r="G13">
-        <v>10.4157585012373</v>
+        <v>32.03934839353985</v>
       </c>
       <c r="I13">
-        <v>210.9103650978167</v>
+        <v>648.7699063275051</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>123.0723729222748</v>
+        <v>378.5762345784042</v>
       </c>
       <c r="C14">
-        <v>2.43030984537702</v>
+        <v>7.475743973041859</v>
       </c>
       <c r="D14">
-        <v>10.28057349539798</v>
+        <v>31.6235131474409</v>
       </c>
       <c r="E14">
-        <v>7.778447002747447</v>
+        <v>23.92685789058056</v>
       </c>
       <c r="F14">
-        <v>1.486008811638709</v>
+        <v>4.571030907284087</v>
       </c>
       <c r="G14">
-        <v>11.36264563771341</v>
+        <v>34.95201642931617</v>
       </c>
       <c r="H14">
-        <v>0.3160900804753438</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I14">
-        <v>156.7264477956246</v>
+        <v>482.097704435971</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>77.06248978224338</v>
+        <v>237.0477347294102</v>
       </c>
       <c r="C15">
-        <v>0.6249368173826624</v>
+        <v>1.922334164496478</v>
       </c>
       <c r="D15">
-        <v>4.405960069456273</v>
+        <v>13.55293420604611</v>
       </c>
       <c r="E15">
-        <v>7.102060306856368</v>
+        <v>21.8462615522692</v>
       </c>
       <c r="F15">
-        <v>0.8105502608938413</v>
+        <v>2.493289585791322</v>
       </c>
       <c r="G15">
-        <v>16.097081320094</v>
+        <v>49.51535660819791</v>
       </c>
       <c r="H15">
-        <v>0.3160900804753438</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I15">
-        <v>106.4191686374019</v>
+        <v>327.3502183561145</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>54.13883775841151</v>
+        <v>166.5335351580034</v>
       </c>
       <c r="C16">
-        <v>1.458185907226212</v>
+        <v>4.485446383825116</v>
       </c>
       <c r="D16">
-        <v>2.937306712970849</v>
+        <v>9.035289470697403</v>
       </c>
       <c r="E16">
-        <v>3.381933479455412</v>
+        <v>10.40298169155676</v>
       </c>
       <c r="F16">
-        <v>1.666131091837342</v>
+        <v>5.12509525968216</v>
       </c>
       <c r="G16">
-        <v>10.4157585012373</v>
+        <v>32.03934839353985</v>
       </c>
       <c r="H16">
-        <v>0.6321801609506876</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I16">
-        <v>74.6303336120893</v>
+        <v>229.5663113771111</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>34.95450485903444</v>
+        <v>107.5216518287409</v>
       </c>
       <c r="C17">
-        <v>2.152560148762503</v>
+        <v>6.621373233265647</v>
       </c>
       <c r="D17">
-        <v>0.9791022376569498</v>
+        <v>3.011763156899135</v>
       </c>
       <c r="F17">
-        <v>1.215825391340762</v>
+        <v>3.739934378686983</v>
       </c>
       <c r="G17">
-        <v>17.04396845657012</v>
+        <v>52.42802464397423</v>
       </c>
       <c r="I17">
-        <v>56.34596109336478</v>
+        <v>173.3227472415669</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>22.5984938390967</v>
+        <v>69.51399815904648</v>
       </c>
       <c r="C18">
-        <v>1.458185907226212</v>
+        <v>4.485446383825116</v>
       </c>
       <c r="D18">
-        <v>3.426857831799324</v>
+        <v>10.54117104914697</v>
       </c>
       <c r="F18">
-        <v>0.8105502608938413</v>
+        <v>2.493289585791322</v>
       </c>
       <c r="G18">
-        <v>21.77840413895071</v>
+        <v>66.991364822856</v>
       </c>
       <c r="I18">
-        <v>50.07249197796678</v>
+        <v>154.0252700006659</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>25.36233840934592</v>
+        <v>78.01571016410976</v>
       </c>
       <c r="C19">
-        <v>1.249873634765325</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D19">
-        <v>2.937306712970849</v>
+        <v>9.035289470697403</v>
       </c>
       <c r="E19">
-        <v>2.70554678356433</v>
+        <v>8.322385353245407</v>
       </c>
       <c r="F19">
-        <v>1.035703111142131</v>
+        <v>3.18587002628891</v>
       </c>
       <c r="G19">
-        <v>20.83151700247459</v>
+        <v>64.07869678707969</v>
       </c>
       <c r="I19">
-        <v>54.12228565426315</v>
+        <v>166.4826201304141</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>45.35956677056097</v>
+        <v>139.5280970242731</v>
       </c>
       <c r="C20">
-        <v>0.8332490898435495</v>
+        <v>2.563112219328637</v>
       </c>
       <c r="D20">
-        <v>6.853715663598648</v>
+        <v>21.08234209829395</v>
       </c>
       <c r="E20">
-        <v>1.352773391782165</v>
+        <v>4.161192676622703</v>
       </c>
       <c r="F20">
-        <v>2.071406222284262</v>
+        <v>6.37174005257782</v>
       </c>
       <c r="G20">
-        <v>26.5128398213313</v>
+        <v>81.55470500173773</v>
       </c>
       <c r="I20">
-        <v>82.9835509594009</v>
+        <v>255.2611890728339</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>109.090570978661</v>
+        <v>335.5675738469076</v>
       </c>
       <c r="C21">
-        <v>0.6249368173826624</v>
+        <v>1.922334164496478</v>
       </c>
       <c r="D21">
-        <v>14.68653356485425</v>
+        <v>45.17644735348702</v>
       </c>
       <c r="E21">
-        <v>12.51315387398503</v>
+        <v>38.49103225876003</v>
       </c>
       <c r="F21">
-        <v>3.692506744071944</v>
+        <v>11.35831922416046</v>
       </c>
       <c r="G21">
-        <v>38.82237259552084</v>
+        <v>119.4193894668303</v>
       </c>
       <c r="H21">
-        <v>0.9482702414260313</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I21">
-        <v>180.3783448159017</v>
+        <v>554.8520188443516</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>207.2883427686925</v>
+        <v>637.6284003797426</v>
       </c>
       <c r="C22">
-        <v>0.9026865139971785</v>
+        <v>2.776704904272691</v>
       </c>
       <c r="D22">
-        <v>31.33127160502239</v>
+        <v>96.37642102077231</v>
       </c>
       <c r="E22">
-        <v>33.48114144660858</v>
+        <v>102.9895187464119</v>
       </c>
       <c r="F22">
-        <v>6.349310377001755</v>
+        <v>19.53076842203201</v>
       </c>
       <c r="G22">
-        <v>68.17587382628049</v>
+        <v>209.7120985758969</v>
       </c>
       <c r="H22">
-        <v>3.160900804753438</v>
+        <v>9.723075099032439</v>
       </c>
       <c r="I22">
-        <v>350.6895273423564</v>
+        <v>1078.736987148161</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>333.6122975383195</v>
+        <v>1026.206649081751</v>
       </c>
       <c r="C23">
-        <v>0.972123938150808</v>
+        <v>2.990297589216744</v>
       </c>
       <c r="D23">
-        <v>24.47755594142375</v>
+        <v>75.29407892247838</v>
       </c>
       <c r="E23">
-        <v>33.14294809866305</v>
+        <v>101.9492205772563</v>
       </c>
       <c r="F23">
-        <v>7.385013488143889</v>
+        <v>22.71663844832092</v>
       </c>
       <c r="G23">
-        <v>86.16672941932674</v>
+        <v>265.0527912556476</v>
       </c>
       <c r="H23">
-        <v>2.844810724278094</v>
+        <v>8.750767589129195</v>
       </c>
       <c r="I23">
-        <v>488.6014791483058</v>
+        <v>1502.9604434638</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>409.5367336739895</v>
+        <v>1259.753678867899</v>
       </c>
       <c r="C24">
-        <v>2.013685300455245</v>
+        <v>6.19418786337754</v>
       </c>
       <c r="D24">
-        <v>35.73723167447864</v>
+        <v>109.9293552268184</v>
       </c>
       <c r="E24">
-        <v>20.29160087673247</v>
+        <v>62.41789014934056</v>
       </c>
       <c r="F24">
-        <v>9.051144579981228</v>
+        <v>27.84173370800309</v>
       </c>
       <c r="G24">
-        <v>105.1044721488491</v>
+        <v>323.3061519711745</v>
       </c>
       <c r="H24">
-        <v>6.321801609506876</v>
+        <v>19.44615019806488</v>
       </c>
       <c r="I24">
-        <v>588.0566698639931</v>
+        <v>1808.889147984678</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>297.844897217447</v>
+        <v>916.1844937221088</v>
       </c>
       <c r="C25">
-        <v>3.541308631835086</v>
+        <v>10.89322693214671</v>
       </c>
       <c r="D25">
-        <v>49.93421412050444</v>
+        <v>153.5999210018558</v>
       </c>
       <c r="E25">
-        <v>20.29160087673247</v>
+        <v>62.41789014934056</v>
       </c>
       <c r="F25">
-        <v>10.17690883122267</v>
+        <v>31.30463591049103</v>
       </c>
       <c r="G25">
-        <v>140.1392961984654</v>
+        <v>431.0748692948993</v>
       </c>
       <c r="H25">
-        <v>8.850522253309629</v>
+        <v>27.22461027729083</v>
       </c>
       <c r="I25">
-        <v>530.7787481295167</v>
+        <v>1632.699647288133</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>251.9975931697833</v>
+        <v>775.1560945792952</v>
       </c>
       <c r="C26">
-        <v>2.360872421223391</v>
+        <v>7.262151288097806</v>
       </c>
       <c r="D26">
-        <v>53.36107195230376</v>
+        <v>164.1410920510028</v>
       </c>
       <c r="E26">
-        <v>10.82218713425732</v>
+        <v>33.28954141298163</v>
       </c>
       <c r="F26">
-        <v>10.94242852206686</v>
+        <v>33.65940940818284</v>
       </c>
       <c r="G26">
-        <v>163.8114746103684</v>
+        <v>503.8915701893082</v>
       </c>
       <c r="H26">
-        <v>4.425261126654815</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I26">
-        <v>497.7208889366578</v>
+        <v>1531.012164067514</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>262.5652341736774</v>
+        <v>807.6626404810078</v>
       </c>
       <c r="C27">
-        <v>2.916371814452424</v>
+        <v>8.970892767650232</v>
       </c>
       <c r="D27">
-        <v>51.40286747698985</v>
+        <v>158.1175657372046</v>
       </c>
       <c r="E27">
-        <v>12.17496052603948</v>
+        <v>37.45073408960434</v>
       </c>
       <c r="F27">
-        <v>10.17690883122267</v>
+        <v>31.30463591049103</v>
       </c>
       <c r="G27">
-        <v>145.8206190173222</v>
+        <v>448.5508775095577</v>
       </c>
       <c r="H27">
-        <v>3.476990885228782</v>
+        <v>10.69538260893568</v>
       </c>
       <c r="I27">
-        <v>488.5339527249327</v>
+        <v>1502.752729104451</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>278.0102479485993</v>
+        <v>855.1722075681253</v>
       </c>
       <c r="C28">
-        <v>2.777496966145165</v>
+        <v>8.543707397762123</v>
       </c>
       <c r="D28">
-        <v>52.38196971464682</v>
+        <v>161.1293288941036</v>
       </c>
       <c r="E28">
-        <v>11.16038048220286</v>
+        <v>34.32983958213731</v>
       </c>
       <c r="F28">
-        <v>9.996786551024039</v>
+        <v>30.75057155809296</v>
       </c>
       <c r="G28">
-        <v>138.2455219255132</v>
+        <v>425.2495332233467</v>
       </c>
       <c r="H28">
-        <v>6.005711529031533</v>
+        <v>18.47384268816164</v>
       </c>
       <c r="I28">
-        <v>498.578115117163</v>
+        <v>1533.64903091173</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>275.2464033783504</v>
+        <v>846.6704955630622</v>
       </c>
       <c r="C29">
-        <v>2.49974726953065</v>
+        <v>7.689336657985911</v>
       </c>
       <c r="D29">
-        <v>43.57004957573427</v>
+        <v>134.0234604820114</v>
       </c>
       <c r="E29">
-        <v>12.17496052603948</v>
+        <v>37.45073408960434</v>
       </c>
       <c r="F29">
-        <v>11.39273422256343</v>
+        <v>35.04457028917801</v>
       </c>
       <c r="G29">
-        <v>94.68871364761178</v>
+        <v>291.2668035776348</v>
       </c>
       <c r="H29">
-        <v>4.425261126654815</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I29">
-        <v>443.9978697464848</v>
+        <v>1365.757705798122</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>294.9184735548302</v>
+        <v>907.1826810108653</v>
       </c>
       <c r="C30">
-        <v>2.43030984537702</v>
+        <v>7.475743973041859</v>
       </c>
       <c r="D30">
-        <v>60.70433873473087</v>
+        <v>186.7293157277462</v>
       </c>
       <c r="E30">
-        <v>12.51315387398503</v>
+        <v>38.49103225876003</v>
       </c>
       <c r="F30">
-        <v>10.53715339161993</v>
+        <v>32.41276461528719</v>
       </c>
       <c r="G30">
-        <v>114.5733435136103</v>
+        <v>352.432832328938</v>
       </c>
       <c r="H30">
-        <v>4.425261126654815</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I30">
-        <v>500.1020340408081</v>
+        <v>1538.336675053284</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>308.9002754984439</v>
+        <v>950.1913417423615</v>
       </c>
       <c r="C31">
-        <v>2.569184693684278</v>
+        <v>7.902929342929966</v>
       </c>
       <c r="D31">
-        <v>57.76703202176002</v>
+        <v>177.6940262570489</v>
       </c>
       <c r="E31">
-        <v>11.83676717809394</v>
+        <v>36.41043592044867</v>
       </c>
       <c r="F31">
-        <v>10.22193940127233</v>
+        <v>31.44315199859056</v>
       </c>
       <c r="G31">
-        <v>98.47626219351625</v>
+        <v>302.9174757207402</v>
       </c>
       <c r="H31">
-        <v>5.057441287605501</v>
+        <v>15.5569201584519</v>
       </c>
       <c r="I31">
-        <v>494.8289022743763</v>
+        <v>1522.116281140572</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>351.1708395140203</v>
+        <v>1080.217525349211</v>
       </c>
       <c r="C32">
-        <v>1.944247876301616</v>
+        <v>5.980595178433489</v>
       </c>
       <c r="D32">
-        <v>62.17299209121633</v>
+        <v>191.246960463095</v>
       </c>
       <c r="E32">
-        <v>17.2478607452226</v>
+        <v>53.05520662693948</v>
       </c>
       <c r="F32">
-        <v>9.771633700775757</v>
+        <v>30.05799111759537</v>
       </c>
       <c r="G32">
-        <v>57.76011532504319</v>
+        <v>177.6727501823572</v>
       </c>
       <c r="H32">
-        <v>6.637891689982219</v>
+        <v>20.41845770796812</v>
       </c>
       <c r="I32">
-        <v>506.7055809425621</v>
+        <v>1558.6494866256</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>383.8492370799085</v>
+        <v>1180.73776729143</v>
       </c>
       <c r="C33">
-        <v>1.527623331379841</v>
+        <v>4.699039068769168</v>
       </c>
       <c r="D33">
-        <v>53.36107195230376</v>
+        <v>164.1410920510028</v>
       </c>
       <c r="E33">
-        <v>24.68811440002451</v>
+        <v>75.94176634836435</v>
       </c>
       <c r="F33">
-        <v>7.114830067845936</v>
+        <v>21.88554191972383</v>
       </c>
       <c r="G33">
-        <v>44.50369541437753</v>
+        <v>136.8953976814883</v>
       </c>
       <c r="H33">
-        <v>2.212630563327407</v>
+        <v>6.806152569322708</v>
       </c>
       <c r="I33">
-        <v>517.2572028091674</v>
+        <v>1591.106756930101</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>389.8646634975097</v>
+        <v>1199.241493420097</v>
       </c>
       <c r="C34">
-        <v>1.805373027994357</v>
+        <v>5.553409808545383</v>
       </c>
       <c r="D34">
-        <v>42.10139621924885</v>
+        <v>129.5058157466628</v>
       </c>
       <c r="E34">
-        <v>26.37908113975221</v>
+        <v>81.14325719414273</v>
       </c>
       <c r="F34">
-        <v>3.827598454220916</v>
+        <v>11.77386748845902</v>
       </c>
       <c r="G34">
-        <v>23.67217841190294</v>
+        <v>72.8167008944087</v>
       </c>
       <c r="H34">
-        <v>0.9482702414260313</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I34">
-        <v>488.598560992055</v>
+        <v>1502.951467082025</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>251.672434985048</v>
+        <v>774.1558931669347</v>
       </c>
       <c r="C35">
-        <v>2.846934390298794</v>
+        <v>8.757300082706179</v>
       </c>
       <c r="D35">
-        <v>25.4566581790807</v>
+        <v>78.30584207937754</v>
       </c>
       <c r="E35">
-        <v>21.64437426851464</v>
+        <v>66.57908282596325</v>
       </c>
       <c r="F35">
-        <v>1.756192231936656</v>
+        <v>5.402127435881197</v>
       </c>
       <c r="G35">
-        <v>17.99085559304623</v>
+        <v>55.34069267975062</v>
       </c>
       <c r="H35">
-        <v>1.264360321901375</v>
+        <v>3.889230039612976</v>
       </c>
       <c r="I35">
-        <v>322.6318099698264</v>
+        <v>992.4301683102263</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>216.8805092183811</v>
+        <v>667.134342044374</v>
       </c>
       <c r="C36">
-        <v>3.124684086913311</v>
+        <v>9.611670822482392</v>
       </c>
       <c r="D36">
-        <v>21.05069810962443</v>
+        <v>64.75290787333141</v>
       </c>
       <c r="E36">
-        <v>18.60063413700476</v>
+        <v>57.21639930356218</v>
       </c>
       <c r="F36">
-        <v>2.116436792333918</v>
+        <v>6.51025614067734</v>
       </c>
       <c r="G36">
-        <v>15.15019418361789</v>
+        <v>46.60268857242154</v>
       </c>
       <c r="H36">
-        <v>0.9482702414260313</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I36">
-        <v>277.8714267693014</v>
+        <v>854.7451872865587</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>165.0177787531161</v>
+        <v>507.6022167728933</v>
       </c>
       <c r="C37">
-        <v>1.735935603840728</v>
+        <v>5.339817123601328</v>
       </c>
       <c r="D37">
-        <v>18.11339139665356</v>
+        <v>55.71761840263397</v>
       </c>
       <c r="E37">
-        <v>15.21870065754935</v>
+        <v>46.81341761200542</v>
       </c>
       <c r="F37">
-        <v>1.440978241589051</v>
+        <v>4.43251481918457</v>
       </c>
       <c r="G37">
-        <v>11.36264563771341</v>
+        <v>34.95201642931617</v>
       </c>
       <c r="I37">
-        <v>212.8894302904621</v>
+        <v>654.8576011596348</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>120.6336865367607</v>
+        <v>371.0747239857013</v>
       </c>
       <c r="C38">
-        <v>1.874810452147987</v>
+        <v>5.767002493489435</v>
       </c>
       <c r="D38">
-        <v>14.68653356485425</v>
+        <v>45.17644735348702</v>
       </c>
       <c r="E38">
-        <v>7.440253654801904</v>
+        <v>22.88655972142488</v>
       </c>
       <c r="F38">
-        <v>1.440978241589051</v>
+        <v>4.43251481918457</v>
       </c>
       <c r="G38">
-        <v>12.30953277418953</v>
+        <v>37.86468446509253</v>
       </c>
       <c r="H38">
-        <v>0.3160900804753438</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I38">
-        <v>158.7018853048187</v>
+        <v>488.174240348283</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>75.43669885856741</v>
+        <v>232.0467276676083</v>
       </c>
       <c r="C39">
-        <v>0.486061969075404</v>
+        <v>1.495148794608372</v>
       </c>
       <c r="D39">
-        <v>6.364164544770176</v>
+        <v>19.57646051984439</v>
       </c>
       <c r="E39">
-        <v>6.763866958910824</v>
+        <v>20.80596338311352</v>
       </c>
       <c r="F39">
-        <v>0.8105502608938413</v>
+        <v>2.493289585791322</v>
       </c>
       <c r="G39">
-        <v>17.99085559304623</v>
+        <v>55.34069267975062</v>
       </c>
       <c r="H39">
-        <v>0.3160900804753438</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I39">
-        <v>108.1682882657392</v>
+        <v>332.7305901406198</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>53.00078411183827</v>
+        <v>163.0328302147421</v>
       </c>
       <c r="C40">
-        <v>1.110998786458066</v>
+        <v>3.41748295910485</v>
       </c>
       <c r="D40">
-        <v>4.405960069456273</v>
+        <v>13.55293420604611</v>
       </c>
       <c r="E40">
-        <v>3.381933479455412</v>
+        <v>10.40298169155676</v>
       </c>
       <c r="F40">
-        <v>1.621100521787683</v>
+        <v>4.986579171582643</v>
       </c>
       <c r="G40">
-        <v>11.36264563771341</v>
+        <v>34.95201642931617</v>
       </c>
       <c r="H40">
-        <v>0.6321801609506876</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I40">
-        <v>75.5156027676598</v>
+        <v>232.2894396921552</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>34.30418848956405</v>
+        <v>105.5212490040202</v>
       </c>
       <c r="C41">
-        <v>1.666498179687099</v>
+        <v>5.126224438657275</v>
       </c>
       <c r="D41">
-        <v>1.468653356485425</v>
+        <v>4.517644735348702</v>
       </c>
       <c r="F41">
-        <v>1.170794821291104</v>
+        <v>3.601418290587465</v>
       </c>
       <c r="G41">
-        <v>18.93774272952236</v>
+        <v>58.25336071552695</v>
       </c>
       <c r="I41">
-        <v>57.54787757655004</v>
+        <v>177.0198971841406</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>22.11075656199388</v>
+        <v>68.01369604050589</v>
       </c>
       <c r="C42">
-        <v>1.110998786458066</v>
+        <v>3.41748295910485</v>
       </c>
       <c r="D42">
-        <v>4.895511188284749</v>
+        <v>15.05881578449567</v>
       </c>
       <c r="F42">
-        <v>0.8105502608938413</v>
+        <v>2.493289585791322</v>
       </c>
       <c r="G42">
-        <v>23.67217841190294</v>
+        <v>72.8167008944087</v>
       </c>
       <c r="I42">
-        <v>52.59999520953349</v>
+        <v>161.7999852643064</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>24.87460113224311</v>
+        <v>76.5154080455691</v>
       </c>
       <c r="C43">
-        <v>0.972123938150808</v>
+        <v>2.990297589216744</v>
       </c>
       <c r="D43">
-        <v>4.405960069456273</v>
+        <v>13.55293420604611</v>
       </c>
       <c r="E43">
-        <v>2.70554678356433</v>
+        <v>8.322385353245407</v>
       </c>
       <c r="F43">
-        <v>0.9906725410924726</v>
+        <v>3.047353938189392</v>
       </c>
       <c r="G43">
-        <v>22.72529127542682</v>
+        <v>69.90403285863235</v>
       </c>
       <c r="I43">
-        <v>56.67419573993382</v>
+        <v>174.3324119908991</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>44.38409221635537</v>
+        <v>136.527492787192</v>
       </c>
       <c r="C44">
-        <v>0.6249368173826624</v>
+        <v>1.922334164496478</v>
       </c>
       <c r="D44">
-        <v>9.791022376569497</v>
+        <v>30.11763156899135</v>
       </c>
       <c r="E44">
-        <v>1.352773391782165</v>
+        <v>4.161192676622703</v>
       </c>
       <c r="F44">
-        <v>2.026375652234603</v>
+        <v>6.233223964478302</v>
       </c>
       <c r="G44">
-        <v>29.35350123075966</v>
+        <v>90.29270910906675</v>
       </c>
       <c r="I44">
-        <v>87.53270168508396</v>
+        <v>269.2545842708477</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>106.8144636855146</v>
+        <v>328.5661639603851</v>
       </c>
       <c r="C45">
-        <v>0.486061969075404</v>
+        <v>1.495148794608372</v>
       </c>
       <c r="D45">
-        <v>21.05069810962443</v>
+        <v>64.75290787333141</v>
       </c>
       <c r="E45">
-        <v>12.17496052603948</v>
+        <v>37.45073408960434</v>
       </c>
       <c r="F45">
-        <v>3.602445603972628</v>
+        <v>11.08128704796143</v>
       </c>
       <c r="G45">
-        <v>42.60992114142533</v>
+        <v>131.0700616099356</v>
       </c>
       <c r="H45">
-        <v>0.9482702414260313</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I45">
-        <v>187.6868212770779</v>
+        <v>577.3332259055361</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>203.061286367135</v>
+        <v>624.6257820190577</v>
       </c>
       <c r="C46">
-        <v>0.6943742415362913</v>
+        <v>2.135926849440531</v>
       </c>
       <c r="D46">
-        <v>45.03870293221967</v>
+        <v>138.5411052173602</v>
       </c>
       <c r="E46">
-        <v>32.46656140277196</v>
+        <v>99.86862423894489</v>
       </c>
       <c r="F46">
-        <v>6.169188096803124</v>
+        <v>18.97670406963394</v>
       </c>
       <c r="G46">
-        <v>73.85719664513717</v>
+        <v>227.1881067905551</v>
       </c>
       <c r="H46">
-        <v>3.476990885228782</v>
+        <v>10.69538260893568</v>
       </c>
       <c r="I46">
-        <v>364.7643005708319</v>
+        <v>1122.031631793928</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>326.9465547512477</v>
+        <v>1005.702520128363</v>
       </c>
       <c r="C47">
-        <v>0.7638116656899203</v>
+        <v>2.349519534384584</v>
       </c>
       <c r="D47">
-        <v>35.24768055565018</v>
+        <v>108.4234736483689</v>
       </c>
       <c r="E47">
-        <v>32.12836805482642</v>
+        <v>98.82832606978923</v>
       </c>
       <c r="F47">
-        <v>7.204891207945257</v>
+        <v>22.16257409592286</v>
       </c>
       <c r="G47">
-        <v>93.74182651113567</v>
+        <v>288.3541355418584</v>
       </c>
       <c r="H47">
-        <v>3.160900804753438</v>
+        <v>9.723075099032439</v>
       </c>
       <c r="I47">
-        <v>499.1940335512486</v>
+        <v>1535.54362411772</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>401.2451999632418</v>
+        <v>1234.24854285271</v>
       </c>
       <c r="C48">
-        <v>1.527623331379841</v>
+        <v>4.699039068769168</v>
       </c>
       <c r="D48">
-        <v>51.40286747698985</v>
+        <v>158.1175657372046</v>
       </c>
       <c r="E48">
-        <v>19.61521418084139</v>
+        <v>60.33729381102922</v>
       </c>
       <c r="F48">
-        <v>8.825991729732941</v>
+        <v>27.1491532675055</v>
       </c>
       <c r="G48">
-        <v>114.5733435136103</v>
+        <v>352.432832328938</v>
       </c>
       <c r="H48">
-        <v>6.953981770457564</v>
+        <v>21.39076521787137</v>
       </c>
       <c r="I48">
-        <v>604.1442219662537</v>
+        <v>1858.375192284028</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>291.8294707998457</v>
+        <v>897.6807675934418</v>
       </c>
       <c r="C49">
-        <v>2.708059541991537</v>
+        <v>8.330114712818071</v>
       </c>
       <c r="D49">
-        <v>71.96401446778582</v>
+        <v>221.3645920320864</v>
       </c>
       <c r="E49">
-        <v>19.61521418084139</v>
+        <v>60.33729381102922</v>
       </c>
       <c r="F49">
-        <v>9.906725410924729</v>
+        <v>30.47353938189393</v>
       </c>
       <c r="G49">
-        <v>152.448828972655</v>
+        <v>468.939553759992</v>
       </c>
       <c r="H49">
-        <v>9.798792494735656</v>
+        <v>30.14153280700057</v>
       </c>
       <c r="I49">
-        <v>558.2711058687797</v>
+        <v>1717.267394098262</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_CO.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>791.1593171770613</v>
+        <v>247.4206517253355</v>
       </c>
       <c r="C2">
-        <v>9.398078137538336</v>
+        <v>2.939077588130036</v>
       </c>
       <c r="D2">
-        <v>114.4469999621671</v>
+        <v>35.79121259632667</v>
       </c>
       <c r="E2">
-        <v>34.32983958213731</v>
+        <v>10.73603141443849</v>
       </c>
       <c r="F2">
-        <v>34.49050593677995</v>
+        <v>10.78627688752204</v>
       </c>
       <c r="G2">
-        <v>463.1142176884393</v>
+        <v>144.8305279050372</v>
       </c>
       <c r="H2">
-        <v>12.63999762874217</v>
+        <v>3.952928801077588</v>
       </c>
       <c r="I2">
-        <v>1459.578956112866</v>
+        <v>456.4567069178675</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>824.165963784954</v>
+        <v>257.7428786620436</v>
       </c>
       <c r="C3">
-        <v>11.53400498697887</v>
+        <v>3.6070497672505</v>
       </c>
       <c r="D3">
-        <v>109.9293552268184</v>
+        <v>34.37840157278745</v>
       </c>
       <c r="E3">
-        <v>38.49103225876003</v>
+        <v>12.03736855558255</v>
       </c>
       <c r="F3">
-        <v>32.13573243908814</v>
+        <v>10.04986440925748</v>
       </c>
       <c r="G3">
-        <v>410.6861930444652</v>
+        <v>128.4346190855991</v>
       </c>
       <c r="H3">
-        <v>9.723075099032439</v>
+        <v>3.040714462367376</v>
       </c>
       <c r="I3">
-        <v>1436.665356840097</v>
+        <v>449.2908965148879</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>872.6757322844322</v>
+        <v>272.913424311448</v>
       </c>
       <c r="C4">
-        <v>11.10681961709077</v>
+        <v>3.473455331426407</v>
       </c>
       <c r="D4">
-        <v>111.4352368052679</v>
+        <v>34.84933858063386</v>
       </c>
       <c r="E4">
-        <v>35.37013775129299</v>
+        <v>11.06136569972451</v>
       </c>
       <c r="F4">
-        <v>31.58166808669006</v>
+        <v>9.876590884959937</v>
       </c>
       <c r="G4">
-        <v>390.2975167940307</v>
+        <v>122.0584323224842</v>
       </c>
       <c r="H4">
-        <v>16.52922766835515</v>
+        <v>5.169214586024539</v>
       </c>
       <c r="I4">
-        <v>1468.99633900716</v>
+        <v>459.4018217167014</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>864.1740202793686</v>
+        <v>270.2546688883566</v>
       </c>
       <c r="C5">
-        <v>10.0388561923705</v>
+        <v>3.139469241866175</v>
       </c>
       <c r="D5">
-        <v>93.36465786387312</v>
+        <v>29.19809448647702</v>
       </c>
       <c r="E5">
-        <v>38.49103225876003</v>
+        <v>12.03736855558255</v>
       </c>
       <c r="F5">
-        <v>36.01418290587464</v>
+        <v>11.26277907934027</v>
       </c>
       <c r="G5">
-        <v>267.965459291424</v>
+        <v>83.80131174379513</v>
       </c>
       <c r="H5">
-        <v>12.63999762874217</v>
+        <v>3.952928801077588</v>
       </c>
       <c r="I5">
-        <v>1322.688206420413</v>
+        <v>413.6466207964953</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>925.6864071395323</v>
+        <v>289.4915463613125</v>
       </c>
       <c r="C6">
-        <v>9.825263507426445</v>
+        <v>3.072672023954129</v>
       </c>
       <c r="D6">
-        <v>129.5058157466628</v>
+        <v>40.50058267479071</v>
       </c>
       <c r="E6">
-        <v>39.5313304279157</v>
+        <v>12.36270284086857</v>
       </c>
       <c r="F6">
-        <v>33.24386114388427</v>
+        <v>10.39641145785257</v>
       </c>
       <c r="G6">
-        <v>323.3061519711745</v>
+        <v>101.1081043865354</v>
       </c>
       <c r="H6">
-        <v>12.63999762874217</v>
+        <v>3.952928801077588</v>
       </c>
       <c r="I6">
-        <v>1473.738827565338</v>
+        <v>460.8849485463915</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>969.6952692833896</v>
+        <v>303.2545156102564</v>
       </c>
       <c r="C7">
-        <v>10.25244887731455</v>
+        <v>3.206266459778222</v>
       </c>
       <c r="D7">
-        <v>123.4822894328645</v>
+        <v>38.61683464340511</v>
       </c>
       <c r="E7">
-        <v>37.45073408960434</v>
+        <v>11.71203427029653</v>
       </c>
       <c r="F7">
-        <v>32.27424852718767</v>
+        <v>10.09318279033186</v>
       </c>
       <c r="G7">
-        <v>276.703463398753</v>
+        <v>86.5339632137015</v>
       </c>
       <c r="H7">
-        <v>14.58461264854866</v>
+        <v>4.561071693551064</v>
       </c>
       <c r="I7">
-        <v>1464.443066257662</v>
+        <v>457.9778686813207</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>1102.22195642114</v>
+        <v>344.6998207349178</v>
       </c>
       <c r="C8">
-        <v>7.689336657985911</v>
+        <v>2.404699844833666</v>
       </c>
       <c r="D8">
-        <v>132.517578903562</v>
+        <v>41.44245669048352</v>
       </c>
       <c r="E8">
-        <v>55.13580296525083</v>
+        <v>17.24271712015879</v>
       </c>
       <c r="F8">
-        <v>30.88908764619248</v>
+        <v>9.659998979588007</v>
       </c>
       <c r="G8">
-        <v>163.1094100034755</v>
+        <v>51.00949410491878</v>
       </c>
       <c r="H8">
-        <v>18.47384268816164</v>
+        <v>5.777357478498015</v>
       </c>
       <c r="I8">
-        <v>1510.037015285768</v>
+        <v>472.2365449533985</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>1204.742601188078</v>
+        <v>376.7612831898442</v>
       </c>
       <c r="C9">
-        <v>6.19418786337754</v>
+        <v>1.937119319449342</v>
       </c>
       <c r="D9">
-        <v>114.4469999621671</v>
+        <v>35.79121259632667</v>
       </c>
       <c r="E9">
-        <v>78.02236268667571</v>
+        <v>24.40007139645112</v>
       </c>
       <c r="F9">
-        <v>22.43960627212189</v>
+        <v>7.01757773405048</v>
       </c>
       <c r="G9">
-        <v>125.244725538383</v>
+        <v>39.16800440199122</v>
       </c>
       <c r="H9">
-        <v>5.833845059419463</v>
+        <v>1.824428677420425</v>
       </c>
       <c r="I9">
-        <v>1556.924328570223</v>
+        <v>486.8996973155334</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>1223.746428022926</v>
+        <v>382.7043835473427</v>
       </c>
       <c r="C10">
-        <v>7.262151288097806</v>
+        <v>2.271105409009574</v>
       </c>
       <c r="D10">
-        <v>90.35289470697404</v>
+        <v>28.25622047078422</v>
       </c>
       <c r="E10">
-        <v>83.22385353245407</v>
+        <v>26.02674282288118</v>
       </c>
       <c r="F10">
-        <v>12.05089966465806</v>
+        <v>3.768699153471554</v>
       </c>
       <c r="G10">
-        <v>66.991364822856</v>
+        <v>20.95032793594878</v>
       </c>
       <c r="H10">
-        <v>2.916922529709732</v>
+        <v>0.9122143387102126</v>
       </c>
       <c r="I10">
-        <v>1486.544514567676</v>
+        <v>464.8896936781483</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>790.159115764701</v>
+        <v>247.1078569696777</v>
       </c>
       <c r="C11">
-        <v>11.32041230203481</v>
+        <v>3.540252549338453</v>
       </c>
       <c r="D11">
-        <v>54.21173682418443</v>
+        <v>16.95373228247053</v>
       </c>
       <c r="E11">
-        <v>68.65967916427462</v>
+        <v>21.47206282887698</v>
       </c>
       <c r="F11">
-        <v>5.540643523980714</v>
+        <v>1.732735242975428</v>
       </c>
       <c r="G11">
-        <v>49.51535660819791</v>
+        <v>15.48502499613606</v>
       </c>
       <c r="H11">
-        <v>3.889230039612976</v>
+        <v>1.21628578494695</v>
       </c>
       <c r="I11">
-        <v>983.2961742269864</v>
+        <v>307.5079506544221</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>680.6370611112392</v>
+        <v>212.8568312251464</v>
       </c>
       <c r="C12">
-        <v>12.60196841169913</v>
+        <v>3.941035856810731</v>
       </c>
       <c r="D12">
-        <v>45.17644735348702</v>
+        <v>14.12811023539211</v>
       </c>
       <c r="E12">
-        <v>59.29699564187352</v>
+        <v>18.54405426130284</v>
       </c>
       <c r="F12">
-        <v>6.648772228776858</v>
+        <v>2.079282291570513</v>
       </c>
       <c r="G12">
-        <v>43.69002053664521</v>
+        <v>13.66325734953181</v>
       </c>
       <c r="H12">
-        <v>2.916922529709732</v>
+        <v>0.9122143387102126</v>
       </c>
       <c r="I12">
-        <v>850.9681878134305</v>
+        <v>266.1247855584646</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>518.1043316026775</v>
+        <v>162.0276834307506</v>
       </c>
       <c r="C13">
-        <v>7.048558603153753</v>
+        <v>2.204308191097527</v>
       </c>
       <c r="D13">
-        <v>39.15292103968877</v>
+        <v>12.2443622040065</v>
       </c>
       <c r="E13">
-        <v>47.85371578116111</v>
+        <v>14.96537712315668</v>
       </c>
       <c r="F13">
-        <v>4.571030907284087</v>
+        <v>1.429506575454727</v>
       </c>
       <c r="G13">
-        <v>32.03934839353985</v>
+        <v>10.01972205632333</v>
       </c>
       <c r="I13">
-        <v>648.7699063275051</v>
+        <v>202.8909595807894</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>378.5762345784042</v>
+        <v>118.3928150164848</v>
       </c>
       <c r="C14">
-        <v>7.475743973041859</v>
+        <v>2.33790262692162</v>
       </c>
       <c r="D14">
-        <v>31.6235131474409</v>
+        <v>9.889677164774481</v>
       </c>
       <c r="E14">
-        <v>23.92685789058056</v>
+        <v>7.482688561578341</v>
       </c>
       <c r="F14">
-        <v>4.571030907284087</v>
+        <v>1.429506575454727</v>
       </c>
       <c r="G14">
-        <v>34.95201642931617</v>
+        <v>10.93060587962545</v>
       </c>
       <c r="H14">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I14">
-        <v>482.097704435971</v>
+        <v>150.7672672710762</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>237.0477347294102</v>
+        <v>74.13235709090334</v>
       </c>
       <c r="C15">
-        <v>1.922334164496478</v>
+        <v>0.6011749612084164</v>
       </c>
       <c r="D15">
-        <v>13.55293420604611</v>
+        <v>4.238433070617631</v>
       </c>
       <c r="E15">
-        <v>21.8462615522692</v>
+        <v>6.832019991006311</v>
       </c>
       <c r="F15">
-        <v>2.493289585791322</v>
+        <v>0.7797308593389424</v>
       </c>
       <c r="G15">
-        <v>49.51535660819791</v>
+        <v>15.48502499613606</v>
       </c>
       <c r="H15">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I15">
-        <v>327.3502183561145</v>
+        <v>102.3728124154474</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>166.5335351580034</v>
+        <v>52.08032681702704</v>
       </c>
       <c r="C16">
-        <v>4.485446383825116</v>
+        <v>1.402741576152972</v>
       </c>
       <c r="D16">
-        <v>9.035289470697403</v>
+        <v>2.825622047078423</v>
       </c>
       <c r="E16">
-        <v>10.40298169155676</v>
+        <v>3.253342852860148</v>
       </c>
       <c r="F16">
-        <v>5.12509525968216</v>
+        <v>1.602780099752271</v>
       </c>
       <c r="G16">
-        <v>32.03934839353985</v>
+        <v>10.01972205632333</v>
       </c>
       <c r="H16">
-        <v>1.944615019806488</v>
+        <v>0.6081428924734751</v>
       </c>
       <c r="I16">
-        <v>229.5663113771111</v>
+        <v>71.79267834166768</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>107.5216518287409</v>
+        <v>33.62543623321566</v>
       </c>
       <c r="C17">
-        <v>6.621373233265647</v>
+        <v>2.070713755273435</v>
       </c>
       <c r="D17">
-        <v>3.011763156899135</v>
+        <v>0.9418740156928074</v>
       </c>
       <c r="F17">
-        <v>3.739934378686983</v>
+        <v>1.169596289008414</v>
       </c>
       <c r="G17">
-        <v>52.42802464397423</v>
+        <v>16.39590881943819</v>
       </c>
       <c r="I17">
-        <v>173.3227472415669</v>
+        <v>54.2035291126285</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>69.51399815904648</v>
+        <v>21.73923551821849</v>
       </c>
       <c r="C18">
-        <v>4.485446383825116</v>
+        <v>1.402741576152972</v>
       </c>
       <c r="D18">
-        <v>10.54117104914697</v>
+        <v>3.296559054924825</v>
       </c>
       <c r="F18">
-        <v>2.493289585791322</v>
+        <v>0.7797308593389424</v>
       </c>
       <c r="G18">
-        <v>66.991364822856</v>
+        <v>20.95032793594878</v>
       </c>
       <c r="I18">
-        <v>154.0252700006659</v>
+        <v>48.16859494458402</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>78.01571016410976</v>
+        <v>24.39799094130996</v>
       </c>
       <c r="C19">
-        <v>3.844668328992956</v>
+        <v>1.202349922416833</v>
       </c>
       <c r="D19">
-        <v>9.035289470697403</v>
+        <v>2.825622047078423</v>
       </c>
       <c r="E19">
-        <v>8.322385353245407</v>
+        <v>2.602674282288119</v>
       </c>
       <c r="F19">
-        <v>3.18587002628891</v>
+        <v>0.996322764710871</v>
       </c>
       <c r="G19">
-        <v>64.07869678707969</v>
+        <v>20.03944411264667</v>
       </c>
       <c r="I19">
-        <v>166.4826201304141</v>
+        <v>52.06440407045088</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>139.5280970242731</v>
+        <v>43.63486841426588</v>
       </c>
       <c r="C20">
-        <v>2.563112219328637</v>
+        <v>0.8015666149445554</v>
       </c>
       <c r="D20">
-        <v>21.08234209829395</v>
+        <v>6.593118109849651</v>
       </c>
       <c r="E20">
-        <v>4.161192676622703</v>
+        <v>1.30133714114406</v>
       </c>
       <c r="F20">
-        <v>6.37174005257782</v>
+        <v>1.992645529421742</v>
       </c>
       <c r="G20">
-        <v>81.55470500173773</v>
+        <v>25.50474705245939</v>
       </c>
       <c r="I20">
-        <v>255.2611890728339</v>
+        <v>79.82828286208527</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>335.5675738469076</v>
+        <v>104.9426405231986</v>
       </c>
       <c r="C21">
-        <v>1.922334164496478</v>
+        <v>0.6011749612084164</v>
       </c>
       <c r="D21">
-        <v>45.17644735348702</v>
+        <v>14.12811023539211</v>
       </c>
       <c r="E21">
-        <v>38.49103225876003</v>
+        <v>12.03736855558255</v>
       </c>
       <c r="F21">
-        <v>11.35831922416046</v>
+        <v>3.552107248099627</v>
       </c>
       <c r="G21">
-        <v>119.4193894668303</v>
+        <v>37.34623675538695</v>
       </c>
       <c r="H21">
-        <v>2.916922529709732</v>
+        <v>0.9122143387102126</v>
       </c>
       <c r="I21">
-        <v>554.8520188443516</v>
+        <v>173.5198526175785</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>637.6284003797426</v>
+        <v>199.4066567318602</v>
       </c>
       <c r="C22">
-        <v>2.776704904272691</v>
+        <v>0.8683638328566017</v>
       </c>
       <c r="D22">
-        <v>96.37642102077231</v>
+        <v>30.13996850216984</v>
       </c>
       <c r="E22">
-        <v>102.9895187464119</v>
+        <v>32.20809424331547</v>
       </c>
       <c r="F22">
-        <v>19.53076842203201</v>
+        <v>6.107891731488382</v>
       </c>
       <c r="G22">
-        <v>209.7120985758969</v>
+        <v>65.58363527775275</v>
       </c>
       <c r="H22">
-        <v>9.723075099032439</v>
+        <v>3.040714462367376</v>
       </c>
       <c r="I22">
-        <v>1078.736987148161</v>
+        <v>337.3553247818106</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>1026.206649081751</v>
+        <v>320.927419304923</v>
       </c>
       <c r="C23">
-        <v>2.990297589216744</v>
+        <v>0.935161050768648</v>
       </c>
       <c r="D23">
-        <v>75.29407892247838</v>
+        <v>23.54685039232018</v>
       </c>
       <c r="E23">
-        <v>101.9492205772563</v>
+        <v>31.88275995802945</v>
       </c>
       <c r="F23">
-        <v>22.71663844832092</v>
+        <v>7.104214496199255</v>
       </c>
       <c r="G23">
-        <v>265.0527912556476</v>
+        <v>82.89042792049301</v>
       </c>
       <c r="H23">
-        <v>8.750767589129195</v>
+        <v>2.736643016130639</v>
       </c>
       <c r="I23">
-        <v>1502.9604434638</v>
+        <v>470.0234761388642</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>1259.753678867899</v>
+        <v>393.9649947510243</v>
       </c>
       <c r="C24">
-        <v>6.19418786337754</v>
+        <v>1.937119319449342</v>
       </c>
       <c r="D24">
-        <v>109.9293552268184</v>
+        <v>34.37840157278745</v>
       </c>
       <c r="E24">
-        <v>62.41789014934056</v>
+        <v>19.52005711716089</v>
       </c>
       <c r="F24">
-        <v>27.84173370800309</v>
+        <v>8.706994595951521</v>
       </c>
       <c r="G24">
-        <v>323.3061519711745</v>
+        <v>101.1081043865354</v>
       </c>
       <c r="H24">
-        <v>19.44615019806488</v>
+        <v>6.081428924734753</v>
       </c>
       <c r="I24">
-        <v>1808.889147984678</v>
+        <v>565.6971006676437</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>916.1844937221088</v>
+        <v>286.5199961825631</v>
       </c>
       <c r="C25">
-        <v>10.89322693214671</v>
+        <v>3.40665811351436</v>
       </c>
       <c r="D25">
-        <v>153.5999210018558</v>
+        <v>48.03557480033317</v>
       </c>
       <c r="E25">
-        <v>62.41789014934056</v>
+        <v>19.52005711716089</v>
       </c>
       <c r="F25">
-        <v>31.30463591049103</v>
+        <v>9.789954122811166</v>
       </c>
       <c r="G25">
-        <v>431.0748692948993</v>
+        <v>134.8108058487139</v>
       </c>
       <c r="H25">
-        <v>27.22461027729083</v>
+        <v>8.514000494628652</v>
       </c>
       <c r="I25">
-        <v>1632.699647288133</v>
+        <v>510.5970466797252</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>775.1560945792952</v>
+        <v>242.4159356348105</v>
       </c>
       <c r="C26">
-        <v>7.262151288097806</v>
+        <v>2.271105409009574</v>
       </c>
       <c r="D26">
-        <v>164.1410920510028</v>
+        <v>51.33213385525802</v>
       </c>
       <c r="E26">
-        <v>33.28954141298163</v>
+        <v>10.41069712915248</v>
       </c>
       <c r="F26">
-        <v>33.65940940818284</v>
+        <v>10.52636660107572</v>
       </c>
       <c r="G26">
-        <v>503.8915701893082</v>
+        <v>157.582901431267</v>
       </c>
       <c r="H26">
-        <v>13.61230513864542</v>
+        <v>4.257000247314326</v>
       </c>
       <c r="I26">
-        <v>1531.012164067514</v>
+        <v>478.7961403078877</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>807.6626404810078</v>
+        <v>252.5817651936896</v>
       </c>
       <c r="C27">
-        <v>8.970892767650232</v>
+        <v>2.805483152305944</v>
       </c>
       <c r="D27">
-        <v>158.1175657372046</v>
+        <v>49.44838582387237</v>
       </c>
       <c r="E27">
-        <v>37.45073408960434</v>
+        <v>11.71203427029653</v>
       </c>
       <c r="F27">
-        <v>31.30463591049103</v>
+        <v>9.789954122811166</v>
       </c>
       <c r="G27">
-        <v>448.5508775095577</v>
+        <v>140.2761087885266</v>
       </c>
       <c r="H27">
-        <v>10.69538260893568</v>
+        <v>3.344785908604113</v>
       </c>
       <c r="I27">
-        <v>1502.752729104451</v>
+        <v>469.9585172601064</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>855.1722075681253</v>
+        <v>267.4395160874359</v>
       </c>
       <c r="C28">
-        <v>8.543707397762123</v>
+        <v>2.671888716481852</v>
       </c>
       <c r="D28">
-        <v>161.1293288941036</v>
+        <v>50.3902598395652</v>
       </c>
       <c r="E28">
-        <v>34.32983958213731</v>
+        <v>10.73603141443849</v>
       </c>
       <c r="F28">
-        <v>30.75057155809296</v>
+        <v>9.61668059851362</v>
       </c>
       <c r="G28">
-        <v>425.2495332233467</v>
+        <v>132.9890382021097</v>
       </c>
       <c r="H28">
-        <v>18.47384268816164</v>
+        <v>5.777357478498015</v>
       </c>
       <c r="I28">
-        <v>1533.64903091173</v>
+        <v>479.6207723370428</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>846.6704955630622</v>
+        <v>264.7807606643444</v>
       </c>
       <c r="C29">
-        <v>7.689336657985911</v>
+        <v>2.404699844833666</v>
       </c>
       <c r="D29">
-        <v>134.0234604820114</v>
+        <v>41.91339369832991</v>
       </c>
       <c r="E29">
-        <v>37.45073408960434</v>
+        <v>11.71203427029653</v>
       </c>
       <c r="F29">
-        <v>35.04457028917801</v>
+        <v>10.95955041181958</v>
       </c>
       <c r="G29">
-        <v>291.2668035776348</v>
+        <v>91.08838233021214</v>
       </c>
       <c r="H29">
-        <v>13.61230513864542</v>
+        <v>4.257000247314326</v>
       </c>
       <c r="I29">
-        <v>1365.757705798122</v>
+        <v>427.1158214671506</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>907.1826810108653</v>
+        <v>283.7048433816427</v>
       </c>
       <c r="C30">
-        <v>7.475743973041859</v>
+        <v>2.33790262692162</v>
       </c>
       <c r="D30">
-        <v>186.7293157277462</v>
+        <v>58.39618897295404</v>
       </c>
       <c r="E30">
-        <v>38.49103225876003</v>
+        <v>12.03736855558255</v>
       </c>
       <c r="F30">
-        <v>32.41276461528719</v>
+        <v>10.13650117140625</v>
       </c>
       <c r="G30">
-        <v>352.432832328938</v>
+        <v>110.2169426195566</v>
       </c>
       <c r="H30">
-        <v>13.61230513864542</v>
+        <v>4.257000247314326</v>
       </c>
       <c r="I30">
-        <v>1538.336675053284</v>
+        <v>481.0867475753781</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>950.1913417423615</v>
+        <v>297.1550178749288</v>
       </c>
       <c r="C31">
-        <v>7.902929342929966</v>
+        <v>2.471497062745712</v>
       </c>
       <c r="D31">
-        <v>177.6940262570489</v>
+        <v>55.57056692587561</v>
       </c>
       <c r="E31">
-        <v>36.41043592044867</v>
+        <v>11.38669998501052</v>
       </c>
       <c r="F31">
-        <v>31.44315199859056</v>
+        <v>9.833272503885551</v>
       </c>
       <c r="G31">
-        <v>302.9174757207402</v>
+        <v>94.7319176234206</v>
       </c>
       <c r="H31">
-        <v>15.5569201584519</v>
+        <v>4.865143139787801</v>
       </c>
       <c r="I31">
-        <v>1522.116281140572</v>
+        <v>476.0141151156546</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>1080.217525349211</v>
+        <v>337.8183361104454</v>
       </c>
       <c r="C32">
-        <v>5.980595178433489</v>
+        <v>1.870322101537296</v>
       </c>
       <c r="D32">
-        <v>191.246960463095</v>
+        <v>59.80899999649326</v>
       </c>
       <c r="E32">
-        <v>53.05520662693948</v>
+        <v>16.59204854958676</v>
       </c>
       <c r="F32">
-        <v>30.05799111759537</v>
+        <v>9.400088693141694</v>
       </c>
       <c r="G32">
-        <v>177.6727501823572</v>
+        <v>55.56391322142939</v>
       </c>
       <c r="H32">
-        <v>20.41845770796812</v>
+        <v>6.385500370971489</v>
       </c>
       <c r="I32">
-        <v>1558.6494866256</v>
+        <v>487.4392090436053</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1180.73776729143</v>
+        <v>369.2542090540564</v>
       </c>
       <c r="C33">
-        <v>4.699039068769168</v>
+        <v>1.469538794065018</v>
       </c>
       <c r="D33">
-        <v>164.1410920510028</v>
+        <v>51.33213385525802</v>
       </c>
       <c r="E33">
-        <v>75.94176634836435</v>
+        <v>23.74940282587909</v>
       </c>
       <c r="F33">
-        <v>21.88554191972383</v>
+        <v>6.844304209752937</v>
       </c>
       <c r="G33">
-        <v>136.8953976814883</v>
+        <v>42.81153969519968</v>
       </c>
       <c r="H33">
-        <v>6.806152569322708</v>
+        <v>2.128500123657163</v>
       </c>
       <c r="I33">
-        <v>1591.106756930101</v>
+        <v>497.5896285578683</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1199.241493420097</v>
+        <v>375.0409120337262</v>
       </c>
       <c r="C34">
-        <v>5.553409808545383</v>
+        <v>1.736727665713203</v>
       </c>
       <c r="D34">
-        <v>129.5058157466628</v>
+        <v>40.50058267479071</v>
       </c>
       <c r="E34">
-        <v>81.14325719414273</v>
+        <v>25.37607425230917</v>
       </c>
       <c r="F34">
-        <v>11.77386748845902</v>
+        <v>3.682062391322784</v>
       </c>
       <c r="G34">
-        <v>72.8167008944087</v>
+        <v>22.77209558255304</v>
       </c>
       <c r="H34">
-        <v>2.916922529709732</v>
+        <v>0.9122143387102126</v>
       </c>
       <c r="I34">
-        <v>1502.951467082025</v>
+        <v>470.0206689391253</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>774.1558931669347</v>
+        <v>242.1031408791527</v>
       </c>
       <c r="C35">
-        <v>8.757300082706179</v>
+        <v>2.738685934393897</v>
       </c>
       <c r="D35">
-        <v>78.30584207937754</v>
+        <v>24.488724408013</v>
       </c>
       <c r="E35">
-        <v>66.57908282596325</v>
+        <v>20.82139425830496</v>
       </c>
       <c r="F35">
-        <v>5.402127435881197</v>
+        <v>1.689416861901042</v>
       </c>
       <c r="G35">
-        <v>55.34069267975062</v>
+        <v>17.3067926427403</v>
       </c>
       <c r="H35">
-        <v>3.889230039612976</v>
+        <v>1.21628578494695</v>
       </c>
       <c r="I35">
-        <v>992.4301683102263</v>
+        <v>310.3644407694528</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>667.134342044374</v>
+        <v>208.634102023766</v>
       </c>
       <c r="C36">
-        <v>9.611670822482392</v>
+        <v>3.005874806042083</v>
       </c>
       <c r="D36">
-        <v>64.75290787333141</v>
+        <v>20.25029133739536</v>
       </c>
       <c r="E36">
-        <v>57.21639930356218</v>
+        <v>17.89338569073082</v>
       </c>
       <c r="F36">
-        <v>6.51025614067734</v>
+        <v>2.035963910496128</v>
       </c>
       <c r="G36">
-        <v>46.60268857242154</v>
+        <v>14.57414117283393</v>
       </c>
       <c r="H36">
-        <v>2.916922529709732</v>
+        <v>0.9122143387102126</v>
       </c>
       <c r="I36">
-        <v>854.7451872865587</v>
+        <v>267.3059732799745</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>507.6022167728933</v>
+        <v>158.7433384963437</v>
       </c>
       <c r="C37">
-        <v>5.339817123601328</v>
+        <v>1.669930447801157</v>
       </c>
       <c r="D37">
-        <v>55.71761840263397</v>
+        <v>17.42466929031693</v>
       </c>
       <c r="E37">
-        <v>46.81341761200542</v>
+        <v>14.64004283787067</v>
       </c>
       <c r="F37">
-        <v>4.43251481918457</v>
+        <v>1.386188194380342</v>
       </c>
       <c r="G37">
-        <v>34.95201642931617</v>
+        <v>10.93060587962545</v>
       </c>
       <c r="I37">
-        <v>654.8576011596348</v>
+        <v>204.7947751463382</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>371.0747239857013</v>
+        <v>116.0468543490512</v>
       </c>
       <c r="C38">
-        <v>5.767002493489435</v>
+        <v>1.80352488362525</v>
       </c>
       <c r="D38">
-        <v>45.17644735348702</v>
+        <v>14.12811023539211</v>
       </c>
       <c r="E38">
-        <v>22.88655972142488</v>
+        <v>7.157354276292326</v>
       </c>
       <c r="F38">
-        <v>4.43251481918457</v>
+        <v>1.386188194380342</v>
       </c>
       <c r="G38">
-        <v>37.86468446509253</v>
+        <v>11.84148970292757</v>
       </c>
       <c r="H38">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I38">
-        <v>488.174240348283</v>
+        <v>152.6675930879056</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>232.0467276676083</v>
+        <v>72.56838331261422</v>
       </c>
       <c r="C39">
-        <v>1.495148794608372</v>
+        <v>0.467580525384324</v>
       </c>
       <c r="D39">
-        <v>19.57646051984439</v>
+        <v>6.122181102003249</v>
       </c>
       <c r="E39">
-        <v>20.80596338311352</v>
+        <v>6.506685705720296</v>
       </c>
       <c r="F39">
-        <v>2.493289585791322</v>
+        <v>0.7797308593389424</v>
       </c>
       <c r="G39">
-        <v>55.34069267975062</v>
+        <v>17.3067926427403</v>
       </c>
       <c r="H39">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I39">
-        <v>332.7305901406198</v>
+        <v>104.0554255940381</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>163.0328302147421</v>
+        <v>50.98554517222467</v>
       </c>
       <c r="C40">
-        <v>3.41748295910485</v>
+        <v>1.06875548659274</v>
       </c>
       <c r="D40">
-        <v>13.55293420604611</v>
+        <v>4.238433070617631</v>
       </c>
       <c r="E40">
-        <v>10.40298169155676</v>
+        <v>3.253342852860148</v>
       </c>
       <c r="F40">
-        <v>4.986579171582643</v>
+        <v>1.559461718677885</v>
       </c>
       <c r="G40">
-        <v>34.95201642931617</v>
+        <v>10.93060587962545</v>
       </c>
       <c r="H40">
-        <v>1.944615019806488</v>
+        <v>0.6081428924734751</v>
       </c>
       <c r="I40">
-        <v>232.2894396921552</v>
+        <v>72.64428707307202</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>105.5212490040202</v>
+        <v>32.99984672190001</v>
       </c>
       <c r="C41">
-        <v>5.126224438657275</v>
+        <v>1.603133229889111</v>
       </c>
       <c r="D41">
-        <v>4.517644735348702</v>
+        <v>1.412811023539211</v>
       </c>
       <c r="F41">
-        <v>3.601418290587465</v>
+        <v>1.126277907934028</v>
       </c>
       <c r="G41">
-        <v>58.25336071552695</v>
+        <v>18.21767646604242</v>
       </c>
       <c r="I41">
-        <v>177.0198971841406</v>
+        <v>55.35974534930477</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>68.01369604050589</v>
+        <v>21.27004338473176</v>
       </c>
       <c r="C42">
-        <v>3.41748295910485</v>
+        <v>1.06875548659274</v>
       </c>
       <c r="D42">
-        <v>15.05881578449567</v>
+        <v>4.709370078464036</v>
       </c>
       <c r="F42">
-        <v>2.493289585791322</v>
+        <v>0.7797308593389424</v>
       </c>
       <c r="G42">
-        <v>72.8167008944087</v>
+        <v>22.77209558255304</v>
       </c>
       <c r="I42">
-        <v>161.7999852643064</v>
+        <v>50.59999539168052</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>76.5154080455691</v>
+        <v>23.92879880782322</v>
       </c>
       <c r="C43">
-        <v>2.990297589216744</v>
+        <v>0.935161050768648</v>
       </c>
       <c r="D43">
-        <v>13.55293420604611</v>
+        <v>4.238433070617631</v>
       </c>
       <c r="E43">
-        <v>8.322385353245407</v>
+        <v>2.602674282288119</v>
       </c>
       <c r="F43">
-        <v>3.047353938189392</v>
+        <v>0.9530043836364851</v>
       </c>
       <c r="G43">
-        <v>69.90403285863235</v>
+        <v>21.86121175925091</v>
       </c>
       <c r="I43">
-        <v>174.3324119908991</v>
+        <v>54.51928335438501</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>136.527492787192</v>
+        <v>42.69648414729243</v>
       </c>
       <c r="C44">
-        <v>1.922334164496478</v>
+        <v>0.6011749612084164</v>
       </c>
       <c r="D44">
-        <v>30.11763156899135</v>
+        <v>9.418740156928072</v>
       </c>
       <c r="E44">
-        <v>4.161192676622703</v>
+        <v>1.30133714114406</v>
       </c>
       <c r="F44">
-        <v>6.233223964478302</v>
+        <v>1.949327148347356</v>
       </c>
       <c r="G44">
-        <v>90.29270910906675</v>
+        <v>28.23739852236574</v>
       </c>
       <c r="I44">
-        <v>269.2545842708477</v>
+        <v>84.20446207728608</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>328.5661639603851</v>
+        <v>102.7530772335938</v>
       </c>
       <c r="C45">
-        <v>1.495148794608372</v>
+        <v>0.467580525384324</v>
       </c>
       <c r="D45">
-        <v>64.75290787333141</v>
+        <v>20.25029133739536</v>
       </c>
       <c r="E45">
-        <v>37.45073408960434</v>
+        <v>11.71203427029653</v>
       </c>
       <c r="F45">
-        <v>11.08128704796143</v>
+        <v>3.465470485950855</v>
       </c>
       <c r="G45">
-        <v>131.0700616099356</v>
+        <v>40.98977204859545</v>
       </c>
       <c r="H45">
-        <v>2.916922529709732</v>
+        <v>0.9122143387102126</v>
       </c>
       <c r="I45">
-        <v>577.3332259055361</v>
+        <v>180.5504402399266</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>624.6257820190577</v>
+        <v>195.3403249083085</v>
       </c>
       <c r="C46">
-        <v>2.135926849440531</v>
+        <v>0.6679721791204629</v>
       </c>
       <c r="D46">
-        <v>138.5411052173602</v>
+        <v>43.32620472186915</v>
       </c>
       <c r="E46">
-        <v>99.86862423894489</v>
+        <v>31.23209138745743</v>
       </c>
       <c r="F46">
-        <v>18.97670406963394</v>
+        <v>5.934618207190837</v>
       </c>
       <c r="G46">
-        <v>227.1881067905551</v>
+        <v>71.04893821756546</v>
       </c>
       <c r="H46">
-        <v>10.69538260893568</v>
+        <v>3.344785908604113</v>
       </c>
       <c r="I46">
-        <v>1122.031631793928</v>
+        <v>350.894935530116</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>1005.702520128363</v>
+        <v>314.5151268139378</v>
       </c>
       <c r="C47">
-        <v>2.349519534384584</v>
+        <v>0.7347693970325091</v>
       </c>
       <c r="D47">
-        <v>108.4234736483689</v>
+        <v>33.90746456494105</v>
       </c>
       <c r="E47">
-        <v>98.82832606978923</v>
+        <v>30.90675710217142</v>
       </c>
       <c r="F47">
-        <v>22.16257409592286</v>
+        <v>6.930940971901711</v>
       </c>
       <c r="G47">
-        <v>288.3541355418584</v>
+        <v>90.17749850690997</v>
       </c>
       <c r="H47">
-        <v>9.723075099032439</v>
+        <v>3.040714462367376</v>
       </c>
       <c r="I47">
-        <v>1535.54362411772</v>
+        <v>480.2132718192618</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>1234.24854285271</v>
+        <v>385.9887284817497</v>
       </c>
       <c r="C48">
-        <v>4.699039068769168</v>
+        <v>1.469538794065018</v>
       </c>
       <c r="D48">
-        <v>158.1175657372046</v>
+        <v>49.44838582387237</v>
       </c>
       <c r="E48">
-        <v>60.33729381102922</v>
+        <v>18.86938854658887</v>
       </c>
       <c r="F48">
-        <v>27.1491532675055</v>
+        <v>8.490402690579591</v>
       </c>
       <c r="G48">
-        <v>352.432832328938</v>
+        <v>110.2169426195566</v>
       </c>
       <c r="H48">
-        <v>21.39076521787137</v>
+        <v>6.689571817208226</v>
       </c>
       <c r="I48">
-        <v>1858.375192284028</v>
+        <v>581.1729587736204</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>897.6807675934418</v>
+        <v>280.7332932028935</v>
       </c>
       <c r="C49">
-        <v>8.330114712818071</v>
+        <v>2.605091498569805</v>
       </c>
       <c r="D49">
-        <v>221.3645920320864</v>
+        <v>69.22774015342134</v>
       </c>
       <c r="E49">
-        <v>60.33729381102922</v>
+        <v>18.86938854658887</v>
       </c>
       <c r="F49">
-        <v>30.47353938189393</v>
+        <v>9.530043836364852</v>
       </c>
       <c r="G49">
-        <v>468.939553759992</v>
+        <v>146.6522955516415</v>
       </c>
       <c r="H49">
-        <v>30.14153280700057</v>
+        <v>9.426214833338866</v>
       </c>
       <c r="I49">
-        <v>1717.267394098262</v>
+        <v>537.0440676228187</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_CO.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>247.4206517253355</v>
+        <v>713.4726484771764</v>
       </c>
       <c r="C2">
-        <v>2.939077588130036</v>
+        <v>9.398078137538336</v>
       </c>
       <c r="D2">
-        <v>35.79121259632667</v>
+        <v>114.3746644021716</v>
       </c>
       <c r="E2">
-        <v>10.73603141443849</v>
+        <v>34.32983958213731</v>
       </c>
       <c r="F2">
-        <v>10.78627688752204</v>
+        <v>34.3754798584117</v>
       </c>
       <c r="G2">
-        <v>144.8305279050372</v>
+        <v>463.0292405384332</v>
       </c>
       <c r="H2">
-        <v>3.952928801077588</v>
+        <v>12.63999762874217</v>
       </c>
       <c r="I2">
-        <v>456.4567069178675</v>
+        <v>1381.619948624611</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>257.7428786620436</v>
+        <v>743.2382583377921</v>
       </c>
       <c r="C3">
-        <v>3.6070497672505</v>
+        <v>11.53400498697887</v>
       </c>
       <c r="D3">
-        <v>34.37840157278745</v>
+        <v>109.8598750178752</v>
       </c>
       <c r="E3">
-        <v>12.03736855558255</v>
+        <v>38.49103225876003</v>
       </c>
       <c r="F3">
-        <v>10.04986440925748</v>
+        <v>32.02855954679322</v>
       </c>
       <c r="G3">
-        <v>128.4346190855991</v>
+        <v>410.6108359491766</v>
       </c>
       <c r="H3">
-        <v>3.040714462367376</v>
+        <v>9.723075099032439</v>
       </c>
       <c r="I3">
-        <v>449.2908965148879</v>
+        <v>1355.485641196408</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>272.913424311448</v>
+        <v>786.9846849511206</v>
       </c>
       <c r="C4">
-        <v>3.473455331426407</v>
+        <v>11.10681961709077</v>
       </c>
       <c r="D4">
-        <v>34.84933858063386</v>
+        <v>111.3648048126407</v>
       </c>
       <c r="E4">
-        <v>11.06136569972451</v>
+        <v>35.37013775129299</v>
       </c>
       <c r="F4">
-        <v>9.876590884959937</v>
+        <v>31.47634300288299</v>
       </c>
       <c r="G4">
-        <v>122.0584323224842</v>
+        <v>390.2259008311324</v>
       </c>
       <c r="H4">
-        <v>5.169214586024539</v>
+        <v>16.52922766835515</v>
       </c>
       <c r="I4">
-        <v>459.4018217167014</v>
+        <v>1383.057918634516</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>270.2546688883566</v>
+        <v>779.3177854415678</v>
       </c>
       <c r="C5">
-        <v>3.139469241866175</v>
+        <v>10.0388561923705</v>
       </c>
       <c r="D5">
-        <v>29.19809448647702</v>
+        <v>93.30564727545573</v>
       </c>
       <c r="E5">
-        <v>12.03736855558255</v>
+        <v>38.49103225876003</v>
       </c>
       <c r="F5">
-        <v>11.26277907934027</v>
+        <v>35.89407535416479</v>
       </c>
       <c r="G5">
-        <v>83.80131174379513</v>
+        <v>267.916290122867</v>
       </c>
       <c r="H5">
-        <v>3.952928801077588</v>
+        <v>12.63999762874217</v>
       </c>
       <c r="I5">
-        <v>413.6466207964953</v>
+        <v>1237.603684273928</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>289.4915463613125</v>
+        <v>834.7900583636239</v>
       </c>
       <c r="C6">
-        <v>3.072672023954129</v>
+        <v>9.825263507426445</v>
       </c>
       <c r="D6">
-        <v>40.50058267479071</v>
+        <v>129.4239623498256</v>
       </c>
       <c r="E6">
-        <v>12.36270284086857</v>
+        <v>39.5313304279157</v>
       </c>
       <c r="F6">
-        <v>10.39641145785257</v>
+        <v>33.13299263461368</v>
       </c>
       <c r="G6">
-        <v>101.1081043865354</v>
+        <v>323.2468283004156</v>
       </c>
       <c r="H6">
-        <v>3.952928801077588</v>
+        <v>12.63999762874217</v>
       </c>
       <c r="I6">
-        <v>460.8849485463915</v>
+        <v>1382.590433212563</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>303.2545156102564</v>
+        <v>874.4775381777782</v>
       </c>
       <c r="C7">
-        <v>3.206266459778222</v>
+        <v>10.25244887731455</v>
       </c>
       <c r="D7">
-        <v>38.61683464340511</v>
+        <v>123.4042431707641</v>
       </c>
       <c r="E7">
-        <v>11.71203427029653</v>
+        <v>37.45073408960434</v>
       </c>
       <c r="F7">
-        <v>10.09318279033186</v>
+        <v>32.16661368277079</v>
       </c>
       <c r="G7">
-        <v>86.5339632137015</v>
+        <v>276.6526908877429</v>
       </c>
       <c r="H7">
-        <v>4.561071693551064</v>
+        <v>14.58461264854866</v>
       </c>
       <c r="I7">
-        <v>457.9778686813207</v>
+        <v>1368.988881534523</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>344.6998207349178</v>
+        <v>993.9909717090374</v>
       </c>
       <c r="C8">
-        <v>2.404699844833666</v>
+        <v>7.689336657985911</v>
       </c>
       <c r="D8">
-        <v>41.44245669048352</v>
+        <v>132.4338219393565</v>
       </c>
       <c r="E8">
-        <v>17.24271712015879</v>
+        <v>55.13580296525083</v>
       </c>
       <c r="F8">
-        <v>9.659998979588007</v>
+        <v>30.7860723229952</v>
       </c>
       <c r="G8">
-        <v>51.00949410491878</v>
+        <v>163.0794809443538</v>
       </c>
       <c r="H8">
-        <v>5.777357478498015</v>
+        <v>18.47384268816164</v>
       </c>
       <c r="I8">
-        <v>472.2365449533985</v>
+        <v>1401.589329227141</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>376.7612831898442</v>
+        <v>1086.444759912464</v>
       </c>
       <c r="C9">
-        <v>1.937119319449342</v>
+        <v>6.19418786337754</v>
       </c>
       <c r="D9">
-        <v>35.79121259632667</v>
+        <v>114.3746644021716</v>
       </c>
       <c r="E9">
-        <v>24.40007139645112</v>
+        <v>78.02236268667571</v>
       </c>
       <c r="F9">
-        <v>7.01757773405048</v>
+        <v>22.36477002836423</v>
       </c>
       <c r="G9">
-        <v>39.16800440199122</v>
+        <v>125.2217442965574</v>
       </c>
       <c r="H9">
-        <v>1.824428677420425</v>
+        <v>5.833845059419463</v>
       </c>
       <c r="I9">
-        <v>486.8996973155334</v>
+        <v>1438.45633424903</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>382.7043835473427</v>
+        <v>1103.582535286758</v>
       </c>
       <c r="C10">
-        <v>2.271105409009574</v>
+        <v>7.262151288097806</v>
       </c>
       <c r="D10">
-        <v>28.25622047078422</v>
+        <v>90.29578768592489</v>
       </c>
       <c r="E10">
-        <v>26.02674282288118</v>
+        <v>83.22385353245407</v>
       </c>
       <c r="F10">
-        <v>3.768699153471554</v>
+        <v>12.01070983004746</v>
       </c>
       <c r="G10">
-        <v>20.95032793594878</v>
+        <v>66.97907253071675</v>
       </c>
       <c r="H10">
-        <v>0.9122143387102126</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I10">
-        <v>464.8896936781483</v>
+        <v>1366.271032683709</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>247.1078569696777</v>
+        <v>712.5706602995821</v>
       </c>
       <c r="C11">
-        <v>3.540252549338453</v>
+        <v>11.32041230203481</v>
       </c>
       <c r="D11">
-        <v>16.95373228247053</v>
+        <v>54.17747261155495</v>
       </c>
       <c r="E11">
-        <v>21.47206282887698</v>
+        <v>68.65967916427462</v>
       </c>
       <c r="F11">
-        <v>1.732735242975428</v>
+        <v>5.522165439102279</v>
       </c>
       <c r="G11">
-        <v>15.48502499613606</v>
+        <v>49.50627100096455</v>
       </c>
       <c r="H11">
-        <v>1.21628578494695</v>
+        <v>3.889230039612976</v>
       </c>
       <c r="I11">
-        <v>307.5079506544221</v>
+        <v>905.6458908571263</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>212.8568312251464</v>
+        <v>613.8029548529944</v>
       </c>
       <c r="C12">
-        <v>3.941035856810731</v>
+        <v>12.60196841169913</v>
       </c>
       <c r="D12">
-        <v>14.12811023539211</v>
+        <v>45.14789384296245</v>
       </c>
       <c r="E12">
-        <v>18.54405426130284</v>
+        <v>59.29699564187352</v>
       </c>
       <c r="F12">
-        <v>2.079282291570513</v>
+        <v>6.626598526922735</v>
       </c>
       <c r="G12">
-        <v>13.66325734953181</v>
+        <v>43.68200382438049</v>
       </c>
       <c r="H12">
-        <v>0.9122143387102126</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I12">
-        <v>266.1247855584646</v>
+        <v>784.0753376305424</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>162.0276834307506</v>
+        <v>467.229875993903</v>
       </c>
       <c r="C13">
-        <v>2.204308191097527</v>
+        <v>7.048558603153753</v>
       </c>
       <c r="D13">
-        <v>12.2443622040065</v>
+        <v>39.12817466390081</v>
       </c>
       <c r="E13">
-        <v>14.96537712315668</v>
+        <v>47.85371578116111</v>
       </c>
       <c r="F13">
-        <v>1.429506575454727</v>
+        <v>4.555786487259382</v>
       </c>
       <c r="G13">
-        <v>10.01972205632333</v>
+        <v>32.03346947121237</v>
       </c>
       <c r="I13">
-        <v>202.8909595807894</v>
+        <v>597.8495810005904</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>118.3928150164848</v>
+        <v>341.4025252194834</v>
       </c>
       <c r="C14">
-        <v>2.33790262692162</v>
+        <v>7.475743973041859</v>
       </c>
       <c r="D14">
-        <v>9.889677164774481</v>
+        <v>31.60352569007372</v>
       </c>
       <c r="E14">
-        <v>7.482688561578341</v>
+        <v>23.92685789058056</v>
       </c>
       <c r="F14">
-        <v>1.429506575454727</v>
+        <v>4.555786487259382</v>
       </c>
       <c r="G14">
-        <v>10.93060587962545</v>
+        <v>34.9456030595044</v>
       </c>
       <c r="H14">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I14">
-        <v>150.7672672710762</v>
+        <v>444.8823498298465</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>74.13235709090334</v>
+        <v>213.7711980898746</v>
       </c>
       <c r="C15">
-        <v>0.6011749612084164</v>
+        <v>1.922334164496478</v>
       </c>
       <c r="D15">
-        <v>4.238433070617631</v>
+        <v>13.54436815288874</v>
       </c>
       <c r="E15">
-        <v>6.832019991006311</v>
+        <v>21.8462615522692</v>
       </c>
       <c r="F15">
-        <v>0.7797308593389424</v>
+        <v>2.484974447596026</v>
       </c>
       <c r="G15">
-        <v>15.48502499613606</v>
+        <v>49.50627100096455</v>
       </c>
       <c r="H15">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I15">
-        <v>102.3728124154474</v>
+        <v>304.0477149179929</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>52.08032681702704</v>
+        <v>150.1810315694688</v>
       </c>
       <c r="C16">
-        <v>1.402741576152972</v>
+        <v>4.485446383825116</v>
       </c>
       <c r="D16">
-        <v>2.825622047078423</v>
+        <v>9.029578768592492</v>
       </c>
       <c r="E16">
-        <v>3.253342852860148</v>
+        <v>10.40298169155676</v>
       </c>
       <c r="F16">
-        <v>1.602780099752271</v>
+        <v>5.10800303116961</v>
       </c>
       <c r="G16">
-        <v>10.01972205632333</v>
+        <v>32.03346947121237</v>
       </c>
       <c r="H16">
-        <v>0.6081428924734751</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I16">
-        <v>71.79267834166768</v>
+        <v>213.1851259356317</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>33.62543623321566</v>
+        <v>96.9637290913988</v>
       </c>
       <c r="C17">
-        <v>2.070713755273435</v>
+        <v>6.621373233265647</v>
       </c>
       <c r="D17">
-        <v>0.9418740156928074</v>
+        <v>3.00985958953083</v>
       </c>
       <c r="F17">
-        <v>1.169596289008414</v>
+        <v>3.727461671394038</v>
       </c>
       <c r="G17">
-        <v>16.39590881943819</v>
+        <v>52.41840458925657</v>
       </c>
       <c r="I17">
-        <v>54.2035291126285</v>
+        <v>162.7408281748459</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>21.73923551821849</v>
+        <v>62.68817834281133</v>
       </c>
       <c r="C18">
-        <v>1.402741576152972</v>
+        <v>4.485446383825116</v>
       </c>
       <c r="D18">
-        <v>3.296559054924825</v>
+        <v>10.5345085633579</v>
       </c>
       <c r="F18">
-        <v>0.7797308593389424</v>
+        <v>2.484974447596026</v>
       </c>
       <c r="G18">
-        <v>20.95032793594878</v>
+        <v>66.97907253071675</v>
       </c>
       <c r="I18">
-        <v>48.16859494458402</v>
+        <v>147.1721802683071</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>24.39799094130996</v>
+        <v>70.35507785236382</v>
       </c>
       <c r="C19">
-        <v>1.202349922416833</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D19">
-        <v>2.825622047078423</v>
+        <v>9.029578768592492</v>
       </c>
       <c r="E19">
-        <v>2.602674282288119</v>
+        <v>8.322385353245407</v>
       </c>
       <c r="F19">
-        <v>0.996322764710871</v>
+        <v>3.17524512748381</v>
       </c>
       <c r="G19">
-        <v>20.03944411264667</v>
+        <v>64.06693894242474</v>
       </c>
       <c r="I19">
-        <v>52.06440407045088</v>
+        <v>158.7938943731032</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>43.63486841426588</v>
+        <v>125.8273507744199</v>
       </c>
       <c r="C20">
-        <v>0.8015666149445554</v>
+        <v>2.563112219328637</v>
       </c>
       <c r="D20">
-        <v>6.593118109849651</v>
+        <v>21.06901712671581</v>
       </c>
       <c r="E20">
-        <v>1.30133714114406</v>
+        <v>4.161192676622703</v>
       </c>
       <c r="F20">
-        <v>1.992645529421742</v>
+        <v>6.35049025496762</v>
       </c>
       <c r="G20">
-        <v>25.50474705245939</v>
+        <v>81.53974047217692</v>
       </c>
       <c r="I20">
-        <v>79.82828286208527</v>
+        <v>241.5109035242315</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>104.9426405231986</v>
+        <v>302.6170335829237</v>
       </c>
       <c r="C21">
-        <v>0.6011749612084164</v>
+        <v>1.922334164496478</v>
       </c>
       <c r="D21">
-        <v>14.12811023539211</v>
+        <v>45.14789384296245</v>
       </c>
       <c r="E21">
-        <v>12.03736855558255</v>
+        <v>38.49103225876003</v>
       </c>
       <c r="F21">
-        <v>3.552107248099627</v>
+        <v>11.32043915015967</v>
       </c>
       <c r="G21">
-        <v>37.34623675538695</v>
+        <v>119.3974771199733</v>
       </c>
       <c r="H21">
-        <v>0.9122143387102126</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I21">
-        <v>173.5198526175785</v>
+        <v>521.8131326489854</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>199.4066567318602</v>
+        <v>575.0174632164347</v>
       </c>
       <c r="C22">
-        <v>0.8683638328566017</v>
+        <v>2.776704904272691</v>
       </c>
       <c r="D22">
-        <v>30.13996850216984</v>
+        <v>96.31550686498656</v>
       </c>
       <c r="E22">
-        <v>32.20809424331547</v>
+        <v>102.9895187464119</v>
       </c>
       <c r="F22">
-        <v>6.107891731488382</v>
+        <v>19.46563317283553</v>
       </c>
       <c r="G22">
-        <v>65.58363527775275</v>
+        <v>209.6736183570263</v>
       </c>
       <c r="H22">
-        <v>3.040714462367376</v>
+        <v>9.723075099032439</v>
       </c>
       <c r="I22">
-        <v>337.3553247818106</v>
+        <v>1015.961520361</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>320.927419304923</v>
+        <v>925.4398702118625</v>
       </c>
       <c r="C23">
-        <v>0.935161050768648</v>
+        <v>2.990297589216744</v>
       </c>
       <c r="D23">
-        <v>23.54685039232018</v>
+        <v>75.24648973827071</v>
       </c>
       <c r="E23">
-        <v>31.88275995802945</v>
+        <v>101.9492205772563</v>
       </c>
       <c r="F23">
-        <v>7.104214496199255</v>
+        <v>22.64087830031935</v>
       </c>
       <c r="G23">
-        <v>82.89042792049301</v>
+        <v>265.004156534575</v>
       </c>
       <c r="H23">
-        <v>2.736643016130639</v>
+        <v>8.750767589129195</v>
       </c>
       <c r="I23">
-        <v>470.0234761388642</v>
+        <v>1402.02168054063</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>393.9649947510243</v>
+        <v>1136.054109680156</v>
       </c>
       <c r="C24">
-        <v>1.937119319449342</v>
+        <v>6.19418786337754</v>
       </c>
       <c r="D24">
-        <v>34.37840157278745</v>
+        <v>109.8598750178752</v>
       </c>
       <c r="E24">
-        <v>19.52005711716089</v>
+        <v>62.41789014934056</v>
       </c>
       <c r="F24">
-        <v>8.706994595951521</v>
+        <v>27.74888133148895</v>
       </c>
       <c r="G24">
-        <v>101.1081043865354</v>
+        <v>323.2468283004156</v>
       </c>
       <c r="H24">
-        <v>6.081428924734753</v>
+        <v>19.44615019806488</v>
       </c>
       <c r="I24">
-        <v>565.6971006676437</v>
+        <v>1684.967922540719</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>286.5199961825631</v>
+        <v>826.2211706764774</v>
       </c>
       <c r="C25">
-        <v>3.40665811351436</v>
+        <v>10.89322693214671</v>
       </c>
       <c r="D25">
-        <v>48.03557480033317</v>
+        <v>153.5028390660724</v>
       </c>
       <c r="E25">
-        <v>19.52005711716089</v>
+        <v>62.41789014934056</v>
       </c>
       <c r="F25">
-        <v>9.789954122811166</v>
+        <v>31.20023473092789</v>
       </c>
       <c r="G25">
-        <v>134.8108058487139</v>
+        <v>430.9957710672209</v>
       </c>
       <c r="H25">
-        <v>8.514000494628652</v>
+        <v>27.22461027729083</v>
       </c>
       <c r="I25">
-        <v>510.5970466797252</v>
+        <v>1542.455742899476</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>242.4159356348105</v>
+        <v>699.0408376356659</v>
       </c>
       <c r="C26">
-        <v>2.271105409009574</v>
+        <v>7.262151288097806</v>
       </c>
       <c r="D26">
-        <v>51.33213385525802</v>
+        <v>164.0373476294303</v>
       </c>
       <c r="E26">
-        <v>10.41069712915248</v>
+        <v>33.28954141298163</v>
       </c>
       <c r="F26">
-        <v>10.52636660107572</v>
+        <v>33.54715504254635</v>
       </c>
       <c r="G26">
-        <v>157.582901431267</v>
+        <v>503.7991107745216</v>
       </c>
       <c r="H26">
-        <v>4.257000247314326</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I26">
-        <v>478.7961403078877</v>
+        <v>1454.588448921889</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>252.5817651936896</v>
+        <v>728.3554534074843</v>
       </c>
       <c r="C27">
-        <v>2.805483152305944</v>
+        <v>8.970892767650232</v>
       </c>
       <c r="D27">
-        <v>49.44838582387237</v>
+        <v>158.0176284503686</v>
       </c>
       <c r="E27">
-        <v>11.71203427029653</v>
+        <v>37.45073408960434</v>
       </c>
       <c r="F27">
-        <v>9.789954122811166</v>
+        <v>31.20023473092789</v>
       </c>
       <c r="G27">
-        <v>140.2761087885266</v>
+        <v>448.4685725969732</v>
       </c>
       <c r="H27">
-        <v>3.344785908604113</v>
+        <v>10.69538260893568</v>
       </c>
       <c r="I27">
-        <v>469.9585172601064</v>
+        <v>1423.158898651944</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>267.4395160874359</v>
+        <v>771.1998918432184</v>
       </c>
       <c r="C28">
-        <v>2.671888716481852</v>
+        <v>8.543707397762123</v>
       </c>
       <c r="D28">
-        <v>50.3902598395652</v>
+        <v>161.0274880398994</v>
       </c>
       <c r="E28">
-        <v>10.73603141443849</v>
+        <v>34.32983958213731</v>
       </c>
       <c r="F28">
-        <v>9.61668059851362</v>
+        <v>30.64801818701765</v>
       </c>
       <c r="G28">
-        <v>132.9890382021097</v>
+        <v>425.1715038906369</v>
       </c>
       <c r="H28">
-        <v>5.777357478498015</v>
+        <v>18.47384268816164</v>
       </c>
       <c r="I28">
-        <v>479.6207723370428</v>
+        <v>1449.394291628833</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>264.7807606643444</v>
+        <v>763.5329923336659</v>
       </c>
       <c r="C29">
-        <v>2.404699844833666</v>
+        <v>7.689336657985911</v>
       </c>
       <c r="D29">
-        <v>41.91339369832991</v>
+        <v>133.9387517341219</v>
       </c>
       <c r="E29">
-        <v>11.71203427029653</v>
+        <v>37.45073408960434</v>
       </c>
       <c r="F29">
-        <v>10.95955041181958</v>
+        <v>34.92769640232191</v>
       </c>
       <c r="G29">
-        <v>91.08838233021214</v>
+        <v>291.2133588292033</v>
       </c>
       <c r="H29">
-        <v>4.257000247314326</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I29">
-        <v>427.1158214671506</v>
+        <v>1282.365175185549</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>283.7048433816427</v>
+        <v>818.1032770781273</v>
       </c>
       <c r="C30">
-        <v>2.33790262692162</v>
+        <v>7.475743973041859</v>
       </c>
       <c r="D30">
-        <v>58.39618897295404</v>
+        <v>186.6112945509115</v>
       </c>
       <c r="E30">
-        <v>12.03736855558255</v>
+        <v>38.49103225876003</v>
       </c>
       <c r="F30">
-        <v>10.13650117140625</v>
+        <v>32.30466781874835</v>
       </c>
       <c r="G30">
-        <v>110.2169426195566</v>
+        <v>352.368164183336</v>
       </c>
       <c r="H30">
-        <v>4.257000247314326</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I30">
-        <v>481.0867475753781</v>
+        <v>1448.966485001571</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>297.1550178749288</v>
+        <v>856.8887687146873</v>
       </c>
       <c r="C31">
-        <v>2.471497062745712</v>
+        <v>7.902929342929966</v>
       </c>
       <c r="D31">
-        <v>55.57056692587561</v>
+        <v>177.581715782319</v>
       </c>
       <c r="E31">
-        <v>11.38669998501052</v>
+        <v>36.41043592044867</v>
       </c>
       <c r="F31">
-        <v>9.833272503885551</v>
+        <v>31.33828886690544</v>
       </c>
       <c r="G31">
-        <v>94.7319176234206</v>
+        <v>302.8618931823715</v>
       </c>
       <c r="H31">
-        <v>4.865143139787801</v>
+        <v>15.5569201584519</v>
       </c>
       <c r="I31">
-        <v>476.0141151156546</v>
+        <v>1428.540951968114</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>337.8183361104454</v>
+        <v>974.1472318019603</v>
       </c>
       <c r="C32">
-        <v>1.870322101537296</v>
+        <v>5.980595178433489</v>
       </c>
       <c r="D32">
-        <v>59.80899999649326</v>
+        <v>191.1260839352077</v>
       </c>
       <c r="E32">
-        <v>16.59204854958676</v>
+        <v>53.05520662693948</v>
       </c>
       <c r="F32">
-        <v>9.400088693141694</v>
+        <v>29.95774750712987</v>
       </c>
       <c r="G32">
-        <v>55.56391322142939</v>
+        <v>177.640148885814</v>
       </c>
       <c r="H32">
-        <v>6.385500370971489</v>
+        <v>20.41845770796812</v>
       </c>
       <c r="I32">
-        <v>487.4392090436053</v>
+        <v>1452.325471643453</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>369.2542090540564</v>
+        <v>1064.797043650198</v>
       </c>
       <c r="C33">
-        <v>1.469538794065018</v>
+        <v>4.699039068769168</v>
       </c>
       <c r="D33">
-        <v>51.33213385525802</v>
+        <v>164.0373476294303</v>
       </c>
       <c r="E33">
-        <v>23.74940282587909</v>
+        <v>75.94176634836435</v>
       </c>
       <c r="F33">
-        <v>6.844304209752937</v>
+        <v>21.81255348445401</v>
       </c>
       <c r="G33">
-        <v>42.81153969519968</v>
+        <v>136.8702786497255</v>
       </c>
       <c r="H33">
-        <v>2.128500123657163</v>
+        <v>6.806152569322708</v>
       </c>
       <c r="I33">
-        <v>497.5896285578683</v>
+        <v>1474.964181400265</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>375.0409120337262</v>
+        <v>1081.483824935695</v>
       </c>
       <c r="C34">
-        <v>1.736727665713203</v>
+        <v>5.553409808545383</v>
       </c>
       <c r="D34">
-        <v>40.50058267479071</v>
+        <v>129.4239623498256</v>
       </c>
       <c r="E34">
-        <v>25.37607425230917</v>
+        <v>81.14325719414273</v>
       </c>
       <c r="F34">
-        <v>3.682062391322784</v>
+        <v>11.73460155809235</v>
       </c>
       <c r="G34">
-        <v>22.77209558255304</v>
+        <v>72.80333970730082</v>
       </c>
       <c r="H34">
-        <v>0.9122143387102126</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I34">
-        <v>470.0206689391253</v>
+        <v>1385.059318083312</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>242.1031408791527</v>
+        <v>698.1388494580713</v>
       </c>
       <c r="C35">
-        <v>2.738685934393897</v>
+        <v>8.757300082706179</v>
       </c>
       <c r="D35">
-        <v>24.488724408013</v>
+        <v>78.25634932780162</v>
       </c>
       <c r="E35">
-        <v>20.82139425830496</v>
+        <v>66.57908282596325</v>
       </c>
       <c r="F35">
-        <v>1.689416861901042</v>
+        <v>5.384111303124721</v>
       </c>
       <c r="G35">
-        <v>17.3067926427403</v>
+        <v>55.33053817754863</v>
       </c>
       <c r="H35">
-        <v>1.21628578494695</v>
+        <v>3.889230039612976</v>
       </c>
       <c r="I35">
-        <v>310.3644407694528</v>
+        <v>916.3354612148286</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>208.634102023766</v>
+        <v>601.6261144554699</v>
       </c>
       <c r="C36">
-        <v>3.005874806042083</v>
+        <v>9.611670822482392</v>
       </c>
       <c r="D36">
-        <v>20.25029133739536</v>
+        <v>64.71198117491282</v>
       </c>
       <c r="E36">
-        <v>17.89338569073082</v>
+        <v>57.21639930356218</v>
       </c>
       <c r="F36">
-        <v>2.035963910496128</v>
+        <v>6.488544390945179</v>
       </c>
       <c r="G36">
-        <v>14.57414117283393</v>
+        <v>46.59413741267252</v>
       </c>
       <c r="H36">
-        <v>0.9122143387102126</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I36">
-        <v>267.3059732799745</v>
+        <v>789.1657700897548</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>158.7433384963437</v>
+        <v>457.7590001291618</v>
       </c>
       <c r="C37">
-        <v>1.669930447801157</v>
+        <v>5.339817123601328</v>
       </c>
       <c r="D37">
-        <v>17.42466929031693</v>
+        <v>55.68240240632034</v>
       </c>
       <c r="E37">
-        <v>14.64004283787067</v>
+        <v>46.81341761200542</v>
       </c>
       <c r="F37">
-        <v>1.386188194380342</v>
+        <v>4.417732351281822</v>
       </c>
       <c r="G37">
-        <v>10.93060587962545</v>
+        <v>34.9456030595044</v>
       </c>
       <c r="I37">
-        <v>204.7947751463382</v>
+        <v>604.9579726818752</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>116.0468543490512</v>
+        <v>334.6376138875252</v>
       </c>
       <c r="C38">
-        <v>1.80352488362525</v>
+        <v>5.767002493489435</v>
       </c>
       <c r="D38">
-        <v>14.12811023539211</v>
+        <v>45.14789384296245</v>
       </c>
       <c r="E38">
-        <v>7.157354276292326</v>
+        <v>22.88655972142488</v>
       </c>
       <c r="F38">
-        <v>1.386188194380342</v>
+        <v>4.417732351281822</v>
       </c>
       <c r="G38">
-        <v>11.84148970292757</v>
+        <v>37.85773664779644</v>
       </c>
       <c r="H38">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I38">
-        <v>152.6675930879056</v>
+        <v>451.6868464543835</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>72.56838331261422</v>
+        <v>209.2612572019027</v>
       </c>
       <c r="C39">
-        <v>0.467580525384324</v>
+        <v>1.495148794608372</v>
       </c>
       <c r="D39">
-        <v>6.122181102003249</v>
+        <v>19.5640873319504</v>
       </c>
       <c r="E39">
-        <v>6.506685705720296</v>
+        <v>20.80596338311352</v>
       </c>
       <c r="F39">
-        <v>0.7797308593389424</v>
+        <v>2.484974447596026</v>
       </c>
       <c r="G39">
-        <v>17.3067926427403</v>
+        <v>55.33053817754863</v>
       </c>
       <c r="H39">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I39">
-        <v>104.0554255940381</v>
+        <v>309.9142768466229</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>50.98554517222467</v>
+        <v>147.0240729478885</v>
       </c>
       <c r="C40">
-        <v>1.06875548659274</v>
+        <v>3.41748295910485</v>
       </c>
       <c r="D40">
-        <v>4.238433070617631</v>
+        <v>13.54436815288874</v>
       </c>
       <c r="E40">
-        <v>3.253342852860148</v>
+        <v>10.40298169155676</v>
       </c>
       <c r="F40">
-        <v>1.559461718677885</v>
+        <v>4.969948895192052</v>
       </c>
       <c r="G40">
-        <v>10.93060587962545</v>
+        <v>34.9456030595044</v>
       </c>
       <c r="H40">
-        <v>0.6081428924734751</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I40">
-        <v>72.64428707307202</v>
+        <v>216.2490727259418</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>32.99984672190001</v>
+        <v>95.15975273621001</v>
       </c>
       <c r="C41">
-        <v>1.603133229889111</v>
+        <v>5.126224438657275</v>
       </c>
       <c r="D41">
-        <v>1.412811023539211</v>
+        <v>4.514789384296246</v>
       </c>
       <c r="F41">
-        <v>1.126277907934028</v>
+        <v>3.589407535416482</v>
       </c>
       <c r="G41">
-        <v>18.21767646604242</v>
+        <v>58.24267176584065</v>
       </c>
       <c r="I41">
-        <v>55.35974534930477</v>
+        <v>166.6328458604207</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>21.27004338473176</v>
+        <v>61.33519607641972</v>
       </c>
       <c r="C42">
-        <v>1.06875548659274</v>
+        <v>3.41748295910485</v>
       </c>
       <c r="D42">
-        <v>4.709370078464036</v>
+        <v>15.04929794765415</v>
       </c>
       <c r="F42">
-        <v>0.7797308593389424</v>
+        <v>2.484974447596026</v>
       </c>
       <c r="G42">
-        <v>22.77209558255304</v>
+        <v>72.80333970730082</v>
       </c>
       <c r="I42">
-        <v>50.59999539168052</v>
+        <v>155.0902911380756</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>23.92879880782322</v>
+        <v>69.00209558597217</v>
       </c>
       <c r="C43">
-        <v>0.935161050768648</v>
+        <v>2.990297589216744</v>
       </c>
       <c r="D43">
-        <v>4.238433070617631</v>
+        <v>13.54436815288874</v>
       </c>
       <c r="E43">
-        <v>2.602674282288119</v>
+        <v>8.322385353245407</v>
       </c>
       <c r="F43">
-        <v>0.9530043836364851</v>
+        <v>3.037190991506253</v>
       </c>
       <c r="G43">
-        <v>21.86121175925091</v>
+        <v>69.8912061190088</v>
       </c>
       <c r="I43">
-        <v>54.51928335438501</v>
+        <v>166.7875437918381</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>42.69648414729243</v>
+        <v>123.1213862416367</v>
       </c>
       <c r="C44">
-        <v>0.6011749612084164</v>
+        <v>1.922334164496478</v>
       </c>
       <c r="D44">
-        <v>9.418740156928072</v>
+        <v>30.09859589530831</v>
       </c>
       <c r="E44">
-        <v>1.30133714114406</v>
+        <v>4.161192676622703</v>
       </c>
       <c r="F44">
-        <v>1.949327148347356</v>
+        <v>6.212436118990064</v>
       </c>
       <c r="G44">
-        <v>28.23739852236574</v>
+        <v>90.276141237053</v>
       </c>
       <c r="I44">
-        <v>84.20446207728608</v>
+        <v>255.7920863341072</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>102.7530772335938</v>
+        <v>296.3031163397629</v>
       </c>
       <c r="C45">
-        <v>0.467580525384324</v>
+        <v>1.495148794608372</v>
       </c>
       <c r="D45">
-        <v>20.25029133739536</v>
+        <v>64.71198117491282</v>
       </c>
       <c r="E45">
-        <v>11.71203427029653</v>
+        <v>37.45073408960434</v>
       </c>
       <c r="F45">
-        <v>3.465470485950855</v>
+        <v>11.04433087820456</v>
       </c>
       <c r="G45">
-        <v>40.98977204859545</v>
+        <v>131.0460114731414</v>
       </c>
       <c r="H45">
-        <v>0.9122143387102126</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I45">
-        <v>180.5504402399266</v>
+        <v>544.9682452799442</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>195.3403249083085</v>
+        <v>563.2916169077077</v>
       </c>
       <c r="C46">
-        <v>0.6679721791204629</v>
+        <v>2.135926849440531</v>
       </c>
       <c r="D46">
-        <v>43.32620472186915</v>
+        <v>138.4535411184182</v>
       </c>
       <c r="E46">
-        <v>31.23209138745743</v>
+        <v>99.86862423894489</v>
       </c>
       <c r="F46">
-        <v>5.934618207190837</v>
+        <v>18.91341662892531</v>
       </c>
       <c r="G46">
-        <v>71.04893821756546</v>
+        <v>227.1464198867786</v>
       </c>
       <c r="H46">
-        <v>3.344785908604113</v>
+        <v>10.69538260893568</v>
       </c>
       <c r="I46">
-        <v>350.894935530116</v>
+        <v>1060.504928239151</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>314.5151268139378</v>
+        <v>906.9491125711772</v>
       </c>
       <c r="C47">
-        <v>0.7347693970325091</v>
+        <v>2.349519534384584</v>
       </c>
       <c r="D47">
-        <v>33.90746456494105</v>
+        <v>108.3549452231099</v>
       </c>
       <c r="E47">
-        <v>30.90675710217142</v>
+        <v>98.82832606978923</v>
       </c>
       <c r="F47">
-        <v>6.930940971901711</v>
+        <v>22.08866175640912</v>
       </c>
       <c r="G47">
-        <v>90.17749850690997</v>
+        <v>288.3012252409113</v>
       </c>
       <c r="H47">
-        <v>3.040714462367376</v>
+        <v>9.723075099032439</v>
       </c>
       <c r="I47">
-        <v>480.2132718192618</v>
+        <v>1436.594865494814</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>385.9887284817497</v>
+        <v>1113.053411151499</v>
       </c>
       <c r="C48">
-        <v>1.469538794065018</v>
+        <v>4.699039068769168</v>
       </c>
       <c r="D48">
-        <v>49.44838582387237</v>
+        <v>158.0176284503686</v>
       </c>
       <c r="E48">
-        <v>18.86938854658887</v>
+        <v>60.33729381102922</v>
       </c>
       <c r="F48">
-        <v>8.490402690579591</v>
+        <v>27.05861065160117</v>
       </c>
       <c r="G48">
-        <v>110.2169426195566</v>
+        <v>352.368164183336</v>
       </c>
       <c r="H48">
-        <v>6.689571817208226</v>
+        <v>21.39076521787137</v>
       </c>
       <c r="I48">
-        <v>581.1729587736204</v>
+        <v>1736.924912534475</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>280.7332932028935</v>
+        <v>809.5343893909808</v>
       </c>
       <c r="C49">
-        <v>2.605091498569805</v>
+        <v>8.330114712818071</v>
       </c>
       <c r="D49">
-        <v>69.22774015342134</v>
+        <v>221.2246798305159</v>
       </c>
       <c r="E49">
-        <v>18.86938854658887</v>
+        <v>60.33729381102922</v>
       </c>
       <c r="F49">
-        <v>9.530043836364852</v>
+        <v>30.37190991506254</v>
       </c>
       <c r="G49">
-        <v>146.6522955516415</v>
+        <v>468.8535077150173</v>
       </c>
       <c r="H49">
-        <v>9.426214833338866</v>
+        <v>30.14153280700057</v>
       </c>
       <c r="I49">
-        <v>537.0440676228187</v>
+        <v>1628.793428182424</v>
       </c>
     </row>
   </sheetData>
